--- a/archive/Datos_orden.xlsx
+++ b/archive/Datos_orden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudio Analitica\Analisis de Grandes Datos\AGD_ArquitecturaInformacion\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C5D988-A48D-4D19-B3A3-6262E9BE386A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF6B08-79BF-4CCD-B1B4-045E40047028}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{535F859A-DE5F-4DA1-A514-62EF85FA905E}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Actual" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Origen!$A$1:$H$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="113">
   <si>
     <t>order_id</t>
   </si>
@@ -359,7 +362,22 @@
     <t>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('01be2f7ca246adb9112cb75096af2ee0','9561fb5984d862e686beec844488550f','delivered','12/02/2018','12/02/2018','16/02/2018','26/02/2018','06/03/2018')</t>
   </si>
   <si>
-    <t>id_status</t>
+    <t>invoiced</t>
+  </si>
+  <si>
+    <t>shipped</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>unavailable</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>approved</t>
   </si>
 </sst>
 </file>
@@ -715,7 +733,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,8 +777,8 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>43143</v>
@@ -782,7 +800,7 @@
       </c>
       <c r="L2" t="str">
         <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"')")</f>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('01be2f7ca246adb9112cb75096af2ee0','9561fb5984d862e686beec844488550f','delivered','43143','43143','43147','43157','43165')</v>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('01be2f7ca246adb9112cb75096af2ee0','9561fb5984d862e686beec844488550f','1','43143','43143','43147','43157','43165')</v>
       </c>
       <c r="M2" t="s">
         <v>105</v>
@@ -795,8 +813,8 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>42975</v>
@@ -814,8 +832,8 @@
         <v>42992</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L47" si="0">+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"')")</f>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('04db86e3493b3724ac4bd3c9a397e23c','ad1e6b608a4dca0dd25bf862939cf3aa','delivered','42975','42977','42978','42989','42992')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('04db86e3493b3724ac4bd3c9a397e23c','ad1e6b608a4dca0dd25bf862939cf3aa','1','42975','42977','42978','42989','42992')</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -825,8 +843,8 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>42989</v>
@@ -844,8 +862,8 @@
         <v>43032</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('05a82511dd29bef74d8003b015912fd6','ebf7e7691b7e62b2df6bbb5621bf6557','delivered','42989','42989','42992','43003','43032')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"','",H4,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('05a82511dd29bef74d8003b015912fd6','ebf7e7691b7e62b2df6bbb5621bf6557','1','42989','42989','42992','43003','43032')</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -855,8 +873,8 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>43063</v>
@@ -874,8 +892,8 @@
         <v>43088</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0ce9a24111d850192a933fcaab6fbad3','5bb8de60ca2ca8b01a5ce471802fe10b','delivered','43063','43063','43075','43082','43088')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"','",G5,"','",H5,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0ce9a24111d850192a933fcaab6fbad3','5bb8de60ca2ca8b01a5ce471802fe10b','1','43063','43063','43075','43082','43088')</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -885,8 +903,8 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>43088</v>
@@ -904,8 +922,8 @@
         <v>43117</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0dacf04c5ad59fd5a0cc1faa07c34e39','db13a417a95ad304e9674468c17ade85','delivered','43088','43088','43089','43152','43117')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A6,"','",B6,"','",C6,"','",D6,"','",E6,"','",F6,"','",G6,"','",H6,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0dacf04c5ad59fd5a0cc1faa07c34e39','db13a417a95ad304e9674468c17ade85','1','43088','43088','43089','43152','43117')</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -915,8 +933,8 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>43068</v>
@@ -934,8 +952,8 @@
         <v>43096</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('18233451c81fa4cf187fae71d8e8a299','44e8a890084067f1ccc9689987c6d001','delivered','43068','43069','43069','43086','43096')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A7,"','",B7,"','",C7,"','",D7,"','",E7,"','",F7,"','",G7,"','",H7,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('18233451c81fa4cf187fae71d8e8a299','44e8a890084067f1ccc9689987c6d001','1','43068','43069','43069','43086','43096')</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -945,8 +963,8 @@
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>43314</v>
@@ -964,8 +982,8 @@
         <v>43328</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('21df4877f402eea02a4c1aab13411b1f','fb68a5552994d81243302fe6a15291a1','delivered','43314','43314','43319','43320','43328')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A8,"','",B8,"','",C8,"','",D8,"','",E8,"','",F8,"','",G8,"','",H8,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('21df4877f402eea02a4c1aab13411b1f','fb68a5552994d81243302fe6a15291a1','1','43314','43314','43319','43320','43328')</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -975,8 +993,8 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>42770</v>
@@ -994,8 +1012,8 @@
         <v>42801</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2526d08a2985e1b276a405915c2d8be9','2450926e09ca55f960204a2789ed4943','delivered','42770','42770','42773','42780','42801')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A9,"','",B9,"','",C9,"','",D9,"','",E9,"','",F9,"','",G9,"','",H9,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2526d08a2985e1b276a405915c2d8be9','2450926e09ca55f960204a2789ed4943','1','42770','42770','42773','42780','42801')</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1005,8 +1023,8 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>43164</v>
@@ -1024,8 +1042,8 @@
         <v>43174</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2e496accb804bb4a59fcd3df574b450c','db859dc699009191be7005581c73865d','delivered','43164','43164','43167','43171','43174')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A10,"','",B10,"','",C10,"','",D10,"','",E10,"','",F10,"','",G10,"','",H10,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2e496accb804bb4a59fcd3df574b450c','db859dc699009191be7005581c73865d','1','43164','43164','43167','43171','43174')</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1035,8 +1053,8 @@
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>43180</v>
@@ -1054,8 +1072,8 @@
         <v>43201</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2eaf8e099d871cd5c22b83b5ea8f6e0e','9d53af6298240d4573ca6e52bcfa6c63','delivered','43180','43180','43181','43187','43201')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A11,"','",B11,"','",C11,"','",D11,"','",E11,"','",F11,"','",G11,"','",H11,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2eaf8e099d871cd5c22b83b5ea8f6e0e','9d53af6298240d4573ca6e52bcfa6c63','1','43180','43180','43181','43187','43201')</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1065,8 +1083,8 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>43011</v>
@@ -1084,8 +1102,8 @@
         <v>43040</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3597f6476c27b4e1cc2f58588116f8f5','79e2cae59c2216c721c54ff9c53ad657','delivered','43011','43012','43014','43031','43040')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A12,"','",B12,"','",C12,"','",D12,"','",E12,"','",F12,"','",G12,"','",H12,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3597f6476c27b4e1cc2f58588116f8f5','79e2cae59c2216c721c54ff9c53ad657','1','43011','43012','43014','43031','43040')</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1095,8 +1113,8 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>43238</v>
@@ -1114,8 +1132,8 @@
         <v>43265</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('37e7875cdce5a9e5b3a692971f370151','3fecd6727aed19735e06945b7c3e49c9','delivered','43238','43238','43241','43257','43265')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A13,"','",B13,"','",C13,"','",D13,"','",E13,"','",F13,"','",G13,"','",H13,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('37e7875cdce5a9e5b3a692971f370151','3fecd6727aed19735e06945b7c3e49c9','1','43238','43238','43241','43257','43265')</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1125,8 +1143,8 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>42810</v>
@@ -1144,8 +1162,8 @@
         <v>42844</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3c314f50bc654f3c4e317b055681dff9','c17d38e818f10c91ebcd036bc835a648','delivered','42810','42810','42814','42849','42844')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A14,"','",B14,"','",C14,"','",D14,"','",E14,"','",F14,"','",G14,"','",H14,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3c314f50bc654f3c4e317b055681dff9','c17d38e818f10c91ebcd036bc835a648','1','42810','42810','42814','42849','42844')</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1155,8 +1173,8 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>43109</v>
@@ -1174,8 +1192,8 @@
         <v>43137</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('421e787a5dec780e5db14facee9bdab5','ef4b4f3a32448a53c0692f135e4e9bbb','delivered','43109','43110','43111','43119','43137')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A15,"','",B15,"','",C15,"','",D15,"','",E15,"','",F15,"','",G15,"','",H15,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('421e787a5dec780e5db14facee9bdab5','ef4b4f3a32448a53c0692f135e4e9bbb','1','43109','43110','43111','43119','43137')</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1185,8 +1203,8 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>43285</v>
@@ -1204,8 +1222,8 @@
         <v>43304</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('4fc44d78867142c627497b60a7e0228a','e494ff798e6549f9ba9747f00f5681c2','delivered','43285','43286','43286','43290','43304')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A16,"','",B16,"','",C16,"','",D16,"','",E16,"','",F16,"','",G16,"','",H16,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('4fc44d78867142c627497b60a7e0228a','e494ff798e6549f9ba9747f00f5681c2','1','43285','43286','43286','43290','43304')</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1215,8 +1233,8 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>42</v>
+      <c r="C17">
+        <v>6</v>
       </c>
       <c r="D17" s="1">
         <v>43316</v>
@@ -1234,8 +1252,8 @@
         <v>43325</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('583174fbe37d3d5f0d6661be3aad1786','e545e697bb9d1b81e0a702121d4e94d5','canceled','43316','43317','00/01/1900','00/01/1900','43325')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A17,"','",B17,"','",C17,"','",D17,"','",E17,"','",F17,"','",G17,"','",H17,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('583174fbe37d3d5f0d6661be3aad1786','e545e697bb9d1b81e0a702121d4e94d5','6','43316','43317','00/01/1900','00/01/1900','43325')</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1245,8 +1263,8 @@
       <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>42882</v>
@@ -1264,8 +1282,8 @@
         <v>42907</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('5e6bf5e993fb83ee6af7a9f8a954e807','a72c88547dfde272c230dc57c9f04dda','delivered','42882','42882','42884','42889','42907')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A18,"','",B18,"','",C18,"','",D18,"','",E18,"','",F18,"','",G18,"','",H18,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('5e6bf5e993fb83ee6af7a9f8a954e807','a72c88547dfde272c230dc57c9f04dda','1','42882','42882','42884','42889','42907')</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1275,8 +1293,8 @@
       <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>43326</v>
@@ -1294,8 +1312,8 @@
         <v>43343</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('677c865b89aa97e7dbeb4bfbb50bbcfd','529d3f46584a8fa9027777a9c7d5a1fc','delivered','43326','43326','43335','43336','43343')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A19,"','",B19,"','",C19,"','",D19,"','",E19,"','",F19,"','",G19,"','",H19,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('677c865b89aa97e7dbeb4bfbb50bbcfd','529d3f46584a8fa9027777a9c7d5a1fc','1','43326','43326','43335','43336','43343')</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1305,8 +1323,8 @@
       <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
+      <c r="C20">
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>43175</v>
@@ -1324,8 +1342,8 @@
         <v>43196</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('68e55ca79d04a79f20d4bfc0146f4b66','30e6e854c81fa16f46a5d7f3ab025e6f','delivered','43175','43175','43179','43201','43196')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A20,"','",B20,"','",C20,"','",D20,"','",E20,"','",F20,"','",G20,"','",H20,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('68e55ca79d04a79f20d4bfc0146f4b66','30e6e854c81fa16f46a5d7f3ab025e6f','1','43175','43175','43179','43201','43196')</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1335,8 +1353,8 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
+      <c r="C21">
+        <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>42997</v>
@@ -1354,8 +1372,8 @@
         <v>43018</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('70a752414a13d09cc1f2b437b914b28e','db3234528c502acda9991fd53d7223d6','delivered','42997','42997','42998','43006','43018')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A21,"','",B21,"','",C21,"','",D21,"','",E21,"','",F21,"','",G21,"','",H21,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('70a752414a13d09cc1f2b437b914b28e','db3234528c502acda9991fd53d7223d6','1','42997','42997','42998','43006','43018')</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1365,8 +1383,8 @@
       <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>43135</v>
@@ -1384,8 +1402,8 @@
         <v>43160</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7139cfc52657eafe990b5b23ed163482','05929b58add0a2e46bb430439b7130a9','delivered','43135','43135','43137','43142','43160')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A22,"','",B22,"','",C22,"','",D22,"','",E22,"','",F22,"','",G22,"','",H22,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7139cfc52657eafe990b5b23ed163482','05929b58add0a2e46bb430439b7130a9','1','43135','43135','43137','43142','43160')</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1395,8 +1413,8 @@
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
+      <c r="C23">
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>43060</v>
@@ -1414,8 +1432,8 @@
         <v>43084</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('79832b7cb59ac6f887088ffd686e1d5e','ce3e77ff426cf554944d321064dd87f2','delivered','43060','43060','43060','43070','43084')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A23,"','",B23,"','",C23,"','",D23,"','",E23,"','",F23,"','",G23,"','",H23,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('79832b7cb59ac6f887088ffd686e1d5e','ce3e77ff426cf554944d321064dd87f2','1','43060','43060','43060','43070','43084')</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1425,8 +1443,8 @@
       <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>42975</v>
@@ -1444,8 +1462,8 @@
         <v>42992</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7c9956750739a47dba7a6928ba2f0245','b65dda35fa1e480e28ded92bd5efe474','delivered','42975','42976','42976','42986','42992')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A24,"','",B24,"','",C24,"','",D24,"','",E24,"','",F24,"','",G24,"','",H24,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7c9956750739a47dba7a6928ba2f0245','b65dda35fa1e480e28ded92bd5efe474','1','42975','42976','42976','42986','42992')</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1455,8 +1473,8 @@
       <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
+      <c r="C25">
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <v>42900</v>
@@ -1474,8 +1492,8 @@
         <v>42923</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('84cec4f65c7a4f2f54c294a30224a594','61a1d82e44d450a06016bb941595446d','delivered','42900','42901','42902','42908','42923')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A25,"','",B25,"','",C25,"','",D25,"','",E25,"','",F25,"','",G25,"','",H25,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('84cec4f65c7a4f2f54c294a30224a594','61a1d82e44d450a06016bb941595446d','1','42900','42901','42902','42908','42923')</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1485,8 +1503,8 @@
       <c r="B26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>43105</v>
@@ -1504,8 +1522,8 @@
         <v>43137</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('88096595631e8d26b658306256e3ce34','29a48e3e901b5187dae9af8a5563c795','delivered','43105','43105','43108','43150','43137')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A26,"','",B26,"','",C26,"','",D26,"','",E26,"','",F26,"','",G26,"','",H26,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('88096595631e8d26b658306256e3ce34','29a48e3e901b5187dae9af8a5563c795','1','43105','43105','43108','43150','43137')</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1515,8 +1533,8 @@
       <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
+      <c r="C27">
+        <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>42923</v>
@@ -1534,8 +1552,8 @@
         <v>42947</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('8ba3f3a9292fbc22a8b7dff752bbcd37','0315a87fba4dab4865f2071777b98e87','delivered','42923','42923','42924','42934','42947')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A27,"','",B27,"','",C27,"','",D27,"','",E27,"','",F27,"','",G27,"','",H27,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('8ba3f3a9292fbc22a8b7dff752bbcd37','0315a87fba4dab4865f2071777b98e87','1','42923','42923','42924','42934','42947')</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1545,8 +1563,8 @@
       <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
+      <c r="C28">
+        <v>1</v>
       </c>
       <c r="D28" s="1">
         <v>43109</v>
@@ -1564,8 +1582,8 @@
         <v>43133</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('9bcc43446a687456408f7c92cf486f48','1b4fbf469a7ab0237b99420da733202e','delivered','43109','43110','43110','43124','43133')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A28,"','",B28,"','",C28,"','",D28,"','",E28,"','",F28,"','",G28,"','",H28,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('9bcc43446a687456408f7c92cf486f48','1b4fbf469a7ab0237b99420da733202e','1','43109','43110','43110','43124','43133')</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1575,8 +1593,8 @@
       <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
+      <c r="C29">
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>42991</v>
@@ -1594,8 +1612,8 @@
         <v>43019</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('a9953b2f0b1665ac7586cc5a6ac8f58c','1f5856eeda57cbd78ba0dcdddd0439e4','delivered','42991','42991','42997','43013','43019')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A29,"','",B29,"','",C29,"','",D29,"','",E29,"','",F29,"','",G29,"','",H29,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('a9953b2f0b1665ac7586cc5a6ac8f58c','1f5856eeda57cbd78ba0dcdddd0439e4','1','42991','42991','42997','43013','43019')</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1605,8 +1623,8 @@
       <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
+      <c r="C30">
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>43214</v>
@@ -1624,8 +1642,8 @@
         <v>43241</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('aad1dcbe4c9fe2e3486e5e04c6649097','2438ba50f3a77cbfd3377900835fb526','delivered','43214','43214','43215','43232','43241')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A30,"','",B30,"','",C30,"','",D30,"','",E30,"','",F30,"','",G30,"','",H30,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('aad1dcbe4c9fe2e3486e5e04c6649097','2438ba50f3a77cbfd3377900835fb526','1','43214','43214','43215','43232','43241')</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1635,8 +1653,8 @@
       <c r="B31" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
-        <v>10</v>
+      <c r="C31">
+        <v>1</v>
       </c>
       <c r="D31" s="1">
         <v>43112</v>
@@ -1654,8 +1672,8 @@
         <v>43139</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae08a26b052c48419e21581f9f01d47e','d80952ace947b1e43b7a5d279da00cd3','delivered','43112','43112','43115','43151','43139')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A31,"','",B31,"','",C31,"','",D31,"','",E31,"','",F31,"','",G31,"','",H31,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae08a26b052c48419e21581f9f01d47e','d80952ace947b1e43b7a5d279da00cd3','1','43112','43112','43115','43151','43139')</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1665,8 +1683,8 @@
       <c r="B32" t="s">
         <v>72</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>43158</v>
@@ -1684,8 +1702,8 @@
         <v>43181</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae168dfba236919411fe08f336fefa44','63572a1269de35c881dc1ca268e20fa0','delivered','43158','43158','43166','43175','43181')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A32,"','",B32,"','",C32,"','",D32,"','",E32,"','",F32,"','",G32,"','",H32,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae168dfba236919411fe08f336fefa44','63572a1269de35c881dc1ca268e20fa0','1','43158','43158','43166','43175','43181')</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1695,8 +1713,8 @@
       <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C33" t="s">
-        <v>10</v>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>43172</v>
@@ -1714,8 +1732,8 @@
         <v>43192</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('af32671d0b8ce510a94d9111d97371d3','ccafbef5836bb3f6604cd55c75d54b4b','delivered','43172','43174','43175','43180','43192')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A33,"','",B33,"','",C33,"','",D33,"','",E33,"','",F33,"','",G33,"','",H33,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('af32671d0b8ce510a94d9111d97371d3','ccafbef5836bb3f6604cd55c75d54b4b','1','43172','43174','43175','43180','43192')</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1725,8 +1743,8 @@
       <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
+      <c r="C34">
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>43326</v>
@@ -1744,8 +1762,8 @@
         <v>43333</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('b89b5e15757b5d96e7d67c969324aeca','cd6b3de9793104fb781a4908b6f8a0e6','delivered','43326','43326','43326','43327','43333')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A34,"','",B34,"','",C34,"','",D34,"','",E34,"','",F34,"','",G34,"','",H34,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('b89b5e15757b5d96e7d67c969324aeca','cd6b3de9793104fb781a4908b6f8a0e6','1','43326','43326','43326','43327','43333')</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1755,8 +1773,8 @@
       <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="C35" t="s">
-        <v>10</v>
+      <c r="C35">
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>43333</v>
@@ -1774,8 +1792,8 @@
         <v>43336</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('be672f99f61bb90b0430f407ba4378cb','8342323ca97ec421480430c2a893aca2','delivered','43333','43333','43333','43334','43336')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A35,"','",B35,"','",C35,"','",D35,"','",E35,"','",F35,"','",G35,"','",H35,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('be672f99f61bb90b0430f407ba4378cb','8342323ca97ec421480430c2a893aca2','1','43333','43333','43333','43334','43336')</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1785,8 +1803,8 @@
       <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="C36" t="s">
-        <v>10</v>
+      <c r="C36">
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>43111</v>
@@ -1804,8 +1822,8 @@
         <v>43132</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('cf73e2cb1f4a9480ed70c154da3d954a','ef1ed1347404166e73e8f3977ffcbca0','delivered','43111','43112','43113','43117','43132')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A36,"','",B36,"','",C36,"','",D36,"','",E36,"','",F36,"','",G36,"','",H36,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('cf73e2cb1f4a9480ed70c154da3d954a','ef1ed1347404166e73e8f3977ffcbca0','1','43111','43112','43113','43117','43132')</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1815,8 +1833,8 @@
       <c r="B37" t="s">
         <v>82</v>
       </c>
-      <c r="C37" t="s">
-        <v>10</v>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37" s="1">
         <v>42936</v>
@@ -1834,8 +1852,8 @@
         <v>42968</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d17ebef6117650c283479ff4dca49c6f','05e86ce92eb1b627c2296627078d237c','delivered','42936','42936','42940','42947','42968')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A37,"','",B37,"','",C37,"','",D37,"','",E37,"','",F37,"','",G37,"','",H37,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d17ebef6117650c283479ff4dca49c6f','05e86ce92eb1b627c2296627078d237c','1','42936','42936','42940','42947','42968')</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1845,8 +1863,8 @@
       <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" t="s">
-        <v>10</v>
+      <c r="C38">
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <v>43174</v>
@@ -1864,8 +1882,8 @@
         <v>43187</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d28f2bc60aaf4da8d97ff1319fdffab4','91c6fb2b7b643426eb8f72f1a3e422d1','delivered','43174','43174','43175','43179','43187')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A38,"','",B38,"','",C38,"','",D38,"','",E38,"','",F38,"','",G38,"','",H38,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d28f2bc60aaf4da8d97ff1319fdffab4','91c6fb2b7b643426eb8f72f1a3e422d1','1','43174','43174','43175','43179','43187')</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1875,8 +1893,8 @@
       <c r="B39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" t="s">
-        <v>10</v>
+      <c r="C39">
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <v>42972</v>
@@ -1894,8 +1912,8 @@
         <v>42999</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d39cd8aec30c3829bad1c1b4194b4fd8','87c10876090200b63f130ffb699b2e82','delivered','42972','42972','42975','42983','42999')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A39,"','",B39,"','",C39,"','",D39,"','",E39,"','",F39,"','",G39,"','",H39,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d39cd8aec30c3829bad1c1b4194b4fd8','87c10876090200b63f130ffb699b2e82','1','42972','42972','42975','42983','42999')</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1905,8 +1923,8 @@
       <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
+      <c r="C40">
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <v>42848</v>
@@ -1924,8 +1942,8 @@
         <v>42866</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d7bd0e4afdf94846eb73642b4e3e75c3','12a063cae60cd7bc2f0029514b21d24c','delivered','42848','42848','42849','42854','42866')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A40,"','",B40,"','",C40,"','",D40,"','",E40,"','",F40,"','",G40,"','",H40,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d7bd0e4afdf94846eb73642b4e3e75c3','12a063cae60cd7bc2f0029514b21d24c','1','42848','42848','42849','42854','42866')</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1935,8 +1953,8 @@
       <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
+      <c r="C41">
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <v>43252</v>
@@ -1954,8 +1972,8 @@
         <v>43280</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e029f708df3cc108b3264558771605c6','d2aa6bef2582c7482ab992fa89f965bd','delivered','43252','43252','43256','43263','43280')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A41,"','",B41,"','",C41,"','",D41,"','",E41,"','",F41,"','",G41,"','",H41,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e029f708df3cc108b3264558771605c6','d2aa6bef2582c7482ab992fa89f965bd','1','43252','43252','43256','43263','43280')</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1965,8 +1983,8 @@
       <c r="B42" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <v>43069</v>
@@ -1984,8 +2002,8 @@
         <v>43097</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e1a86e22da680449cba8e136ffa97f8a','fddbbeff104817044cfe82a0c122f473','delivered','43069','43070','43074','43080','43097')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A42,"','",B42,"','",C42,"','",D42,"','",E42,"','",F42,"','",G42,"','",H42,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e1a86e22da680449cba8e136ffa97f8a','fddbbeff104817044cfe82a0c122f473','1','43069','43070','43074','43080','43097')</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1995,8 +2013,8 @@
       <c r="B43" t="s">
         <v>94</v>
       </c>
-      <c r="C43" t="s">
-        <v>10</v>
+      <c r="C43">
+        <v>1</v>
       </c>
       <c r="D43" s="1">
         <v>43309</v>
@@ -2014,8 +2032,8 @@
         <v>43329</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e2e6ee1ed2d7f2f36b05d234983bd7a0','20a92c393edb6c08801eef97295257f7','delivered','43309','43311','43313','43321','43329')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A43,"','",B43,"','",C43,"','",D43,"','",E43,"','",F43,"','",G43,"','",H43,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e2e6ee1ed2d7f2f36b05d234983bd7a0','20a92c393edb6c08801eef97295257f7','1','43309','43311','43313','43321','43329')</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2025,8 +2043,8 @@
       <c r="B44" t="s">
         <v>96</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
+      <c r="C44">
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <v>43238</v>
@@ -2044,8 +2062,8 @@
         <v>43258</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e51478e7e277a83743b6f9991dbfa3fb','659ded3e9b43aaf51cf9586d03033b46','delivered','43238','43238','43239','43242','43258')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A44,"','",B44,"','",C44,"','",D44,"','",E44,"','",F44,"','",G44,"','",H44,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e51478e7e277a83743b6f9991dbfa3fb','659ded3e9b43aaf51cf9586d03033b46','1','43238','43238','43239','43242','43258')</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2055,8 +2073,8 @@
       <c r="B45" t="s">
         <v>98</v>
       </c>
-      <c r="C45" t="s">
-        <v>10</v>
+      <c r="C45">
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>43300</v>
@@ -2074,8 +2092,8 @@
         <v>43329</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('eae81d7a6951b80a04eb152e76e3ba55','15652e306d7c3e9098df857da0db3201','delivered','43300','43300','43304','43307','43329')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A45,"','",B45,"','",C45,"','",D45,"','",E45,"','",F45,"','",G45,"','",H45,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('eae81d7a6951b80a04eb152e76e3ba55','15652e306d7c3e9098df857da0db3201','1','43300','43300','43304','43307','43329')</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2085,8 +2103,8 @@
       <c r="B46" t="s">
         <v>100</v>
       </c>
-      <c r="C46" t="s">
-        <v>10</v>
+      <c r="C46">
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <v>43154</v>
@@ -2104,8 +2122,8 @@
         <v>43174</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('fa612a1874826daa30fed5e3073b9d0d','b51db50e74624ee11ec905f6c8cb92c2','delivered','43154','43154','43158','43160','43174')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A46,"','",B46,"','",C46,"','",D46,"','",E46,"','",F46,"','",G46,"','",H46,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('fa612a1874826daa30fed5e3073b9d0d','b51db50e74624ee11ec905f6c8cb92c2','1','43154','43154','43158','43160','43174')</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2115,8 +2133,8 @@
       <c r="B47" t="s">
         <v>102</v>
       </c>
-      <c r="C47" t="s">
-        <v>10</v>
+      <c r="C47">
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <v>43180</v>
@@ -2134,29 +2152,30 @@
         <v>43193</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ff1581e08b3011021e7c7de592ddc81e','0f3c16514be9fe9bdb840983701d2ce6','delivered','43180','43180','43181','43183','43193')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A47,"','",B47,"','",C47,"','",D47,"','",E47,"','",F47,"','",G47,"','",H47,"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ff1581e08b3011021e7c7de592ddc81e','0f3c16514be9fe9bdb840983701d2ce6','1','43180','43180','43181','43183','43193')</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H47" xr:uid="{17AF2DC6-5EAC-4967-A43A-2F184100B5E6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529C9FC5-02F1-4B7C-BC24-46ACBCD59F34}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="9" width="11.42578125" style="1"/>
+    <col min="4" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2166,673 +2185,673 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>107</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43143</v>
       </c>
       <c r="E2" s="1">
         <v>43143</v>
       </c>
       <c r="F2" s="1">
-        <v>43143</v>
+        <v>43147</v>
       </c>
       <c r="G2" s="1">
-        <v>43147</v>
+        <v>43157</v>
       </c>
       <c r="H2" s="1">
-        <v>43157</v>
-      </c>
-      <c r="I2" s="1">
         <v>43165</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>104</v>
       </c>
-      <c r="M2" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$L$2," (",$A$1,",",$B$1,",",$C$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") VALUES ('",A2,"','",B2,"','",C2,"','",TEXT(E2,"dd/MM/yyyy"),"','",TEXT(F2,"dd/MM/yyyy"),"','",TEXT(G2,"dd/MM/yyyy"),"','",TEXT(H2,"dd/MM/yyyy"),"','",TEXT(I2,"dd/MM/yyyy"),"')")</f>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('01be2f7ca246adb9112cb75096af2ee0','9561fb5984d862e686beec844488550f','delivered','12/02/2018','12/02/2018','16/02/2018','26/02/2018','06/03/2018')</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="L2" t="str">
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A2,"','",B2,"','",C2,"','",TEXT(D2,"dd/MM/yyyy"),"','",TEXT(E2,"dd/MM/yyyy"),"','",TEXT(F2,"dd/MM/yyyy"),"','",TEXT(G2,"dd/MM/yyyy"),"','",TEXT(H2,"dd/MM/yyyy"),"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('01be2f7ca246adb9112cb75096af2ee0','9561fb5984d862e686beec844488550f','1','12/02/2018','12/02/2018','16/02/2018','26/02/2018','06/03/2018')</v>
+      </c>
+      <c r="M2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42975</v>
       </c>
       <c r="E3" s="1">
-        <v>42975</v>
+        <v>42977</v>
       </c>
       <c r="F3" s="1">
-        <v>42977</v>
+        <v>42978</v>
       </c>
       <c r="G3" s="1">
-        <v>42978</v>
+        <v>42989</v>
       </c>
       <c r="H3" s="1">
-        <v>42989</v>
-      </c>
-      <c r="I3" s="1">
         <v>42992</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M47" si="0">+CONCATENATE("INSERT INTO ",$L$2," (",$A$1,",",$B$1,",",$C$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") VALUES ('",A3,"','",B3,"','",C3,"','",TEXT(E3,"dd/MM/yyyy"),"','",TEXT(F3,"dd/MM/yyyy"),"','",TEXT(G3,"dd/MM/yyyy"),"','",TEXT(H3,"dd/MM/yyyy"),"','",TEXT(I3,"dd/MM/yyyy"),"')")</f>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('04db86e3493b3724ac4bd3c9a397e23c','ad1e6b608a4dca0dd25bf862939cf3aa','delivered','28/08/2017','30/08/2017','31/08/2017','11/09/2017','14/09/2017')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L47" si="0">+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A3,"','",B3,"','",C3,"','",TEXT(D3,"dd/MM/yyyy"),"','",TEXT(E3,"dd/MM/yyyy"),"','",TEXT(F3,"dd/MM/yyyy"),"','",TEXT(G3,"dd/MM/yyyy"),"','",TEXT(H3,"dd/MM/yyyy"),"')")</f>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('04db86e3493b3724ac4bd3c9a397e23c','ad1e6b608a4dca0dd25bf862939cf3aa','1','28/08/2017','30/08/2017','31/08/2017','11/09/2017','14/09/2017')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42989</v>
       </c>
       <c r="E4" s="1">
         <v>42989</v>
       </c>
       <c r="F4" s="1">
-        <v>42989</v>
+        <v>42992</v>
       </c>
       <c r="G4" s="1">
-        <v>42992</v>
+        <v>43003</v>
       </c>
       <c r="H4" s="1">
-        <v>43003</v>
-      </c>
-      <c r="I4" s="1">
         <v>43032</v>
       </c>
-      <c r="M4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('05a82511dd29bef74d8003b015912fd6','ebf7e7691b7e62b2df6bbb5621bf6557','delivered','11/09/2017','11/09/2017','14/09/2017','25/09/2017','24/10/2017')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('05a82511dd29bef74d8003b015912fd6','ebf7e7691b7e62b2df6bbb5621bf6557','1','11/09/2017','11/09/2017','14/09/2017','25/09/2017','24/10/2017')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43063</v>
       </c>
       <c r="E5" s="1">
         <v>43063</v>
       </c>
       <c r="F5" s="1">
-        <v>43063</v>
+        <v>43075</v>
       </c>
       <c r="G5" s="1">
-        <v>43075</v>
+        <v>43082</v>
       </c>
       <c r="H5" s="1">
-        <v>43082</v>
-      </c>
-      <c r="I5" s="1">
         <v>43088</v>
       </c>
-      <c r="M5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0ce9a24111d850192a933fcaab6fbad3','5bb8de60ca2ca8b01a5ce471802fe10b','delivered','24/11/2017','24/11/2017','06/12/2017','13/12/2017','19/12/2017')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0ce9a24111d850192a933fcaab6fbad3','5bb8de60ca2ca8b01a5ce471802fe10b','1','24/11/2017','24/11/2017','06/12/2017','13/12/2017','19/12/2017')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43088</v>
       </c>
       <c r="E6" s="1">
         <v>43088</v>
       </c>
       <c r="F6" s="1">
-        <v>43088</v>
+        <v>43089</v>
       </c>
       <c r="G6" s="1">
-        <v>43089</v>
+        <v>43152</v>
       </c>
       <c r="H6" s="1">
-        <v>43152</v>
-      </c>
-      <c r="I6" s="1">
         <v>43117</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0dacf04c5ad59fd5a0cc1faa07c34e39','db13a417a95ad304e9674468c17ade85','delivered','19/12/2017','19/12/2017','20/12/2017','21/02/2018','17/01/2018')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0dacf04c5ad59fd5a0cc1faa07c34e39','db13a417a95ad304e9674468c17ade85','1','19/12/2017','19/12/2017','20/12/2017','21/02/2018','17/01/2018')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43068</v>
       </c>
       <c r="E7" s="1">
-        <v>43068</v>
+        <v>43069</v>
       </c>
       <c r="F7" s="1">
         <v>43069</v>
       </c>
       <c r="G7" s="1">
-        <v>43069</v>
+        <v>43086</v>
       </c>
       <c r="H7" s="1">
-        <v>43086</v>
-      </c>
-      <c r="I7" s="1">
         <v>43096</v>
       </c>
-      <c r="M7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('18233451c81fa4cf187fae71d8e8a299','44e8a890084067f1ccc9689987c6d001','delivered','29/11/2017','30/11/2017','30/11/2017','17/12/2017','27/12/2017')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('18233451c81fa4cf187fae71d8e8a299','44e8a890084067f1ccc9689987c6d001','1','29/11/2017','30/11/2017','30/11/2017','17/12/2017','27/12/2017')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43314</v>
       </c>
       <c r="E8" s="1">
         <v>43314</v>
       </c>
       <c r="F8" s="1">
-        <v>43314</v>
+        <v>43319</v>
       </c>
       <c r="G8" s="1">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="H8" s="1">
-        <v>43320</v>
-      </c>
-      <c r="I8" s="1">
         <v>43328</v>
       </c>
-      <c r="M8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('21df4877f402eea02a4c1aab13411b1f','fb68a5552994d81243302fe6a15291a1','delivered','02/08/2018','02/08/2018','07/08/2018','08/08/2018','16/08/2018')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('21df4877f402eea02a4c1aab13411b1f','fb68a5552994d81243302fe6a15291a1','1','02/08/2018','02/08/2018','07/08/2018','08/08/2018','16/08/2018')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42770</v>
       </c>
       <c r="E9" s="1">
         <v>42770</v>
       </c>
       <c r="F9" s="1">
-        <v>42770</v>
+        <v>42773</v>
       </c>
       <c r="G9" s="1">
-        <v>42773</v>
+        <v>42780</v>
       </c>
       <c r="H9" s="1">
-        <v>42780</v>
-      </c>
-      <c r="I9" s="1">
         <v>42801</v>
       </c>
-      <c r="M9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2526d08a2985e1b276a405915c2d8be9','2450926e09ca55f960204a2789ed4943','delivered','04/02/2017','04/02/2017','07/02/2017','14/02/2017','07/03/2017')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2526d08a2985e1b276a405915c2d8be9','2450926e09ca55f960204a2789ed4943','1','04/02/2017','04/02/2017','07/02/2017','14/02/2017','07/03/2017')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43164</v>
       </c>
       <c r="E10" s="1">
         <v>43164</v>
       </c>
       <c r="F10" s="1">
-        <v>43164</v>
+        <v>43167</v>
       </c>
       <c r="G10" s="1">
-        <v>43167</v>
+        <v>43171</v>
       </c>
       <c r="H10" s="1">
-        <v>43171</v>
-      </c>
-      <c r="I10" s="1">
         <v>43174</v>
       </c>
-      <c r="M10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2e496accb804bb4a59fcd3df574b450c','db859dc699009191be7005581c73865d','delivered','05/03/2018','05/03/2018','08/03/2018','12/03/2018','15/03/2018')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2e496accb804bb4a59fcd3df574b450c','db859dc699009191be7005581c73865d','1','05/03/2018','05/03/2018','08/03/2018','12/03/2018','15/03/2018')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43180</v>
       </c>
       <c r="E11" s="1">
         <v>43180</v>
       </c>
       <c r="F11" s="1">
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="G11" s="1">
-        <v>43181</v>
+        <v>43187</v>
       </c>
       <c r="H11" s="1">
-        <v>43187</v>
-      </c>
-      <c r="I11" s="1">
         <v>43201</v>
       </c>
-      <c r="M11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2eaf8e099d871cd5c22b83b5ea8f6e0e','9d53af6298240d4573ca6e52bcfa6c63','delivered','21/03/2018','21/03/2018','22/03/2018','28/03/2018','11/04/2018')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2eaf8e099d871cd5c22b83b5ea8f6e0e','9d53af6298240d4573ca6e52bcfa6c63','1','21/03/2018','21/03/2018','22/03/2018','28/03/2018','11/04/2018')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43011</v>
       </c>
       <c r="E12" s="1">
-        <v>43011</v>
+        <v>43012</v>
       </c>
       <c r="F12" s="1">
-        <v>43012</v>
+        <v>43014</v>
       </c>
       <c r="G12" s="1">
-        <v>43014</v>
+        <v>43031</v>
       </c>
       <c r="H12" s="1">
-        <v>43031</v>
-      </c>
-      <c r="I12" s="1">
         <v>43040</v>
       </c>
-      <c r="M12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3597f6476c27b4e1cc2f58588116f8f5','79e2cae59c2216c721c54ff9c53ad657','delivered','03/10/2017','04/10/2017','06/10/2017','23/10/2017','01/11/2017')</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3597f6476c27b4e1cc2f58588116f8f5','79e2cae59c2216c721c54ff9c53ad657','1','03/10/2017','04/10/2017','06/10/2017','23/10/2017','01/11/2017')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43238</v>
       </c>
       <c r="E13" s="1">
         <v>43238</v>
       </c>
       <c r="F13" s="1">
-        <v>43238</v>
+        <v>43241</v>
       </c>
       <c r="G13" s="1">
-        <v>43241</v>
+        <v>43257</v>
       </c>
       <c r="H13" s="1">
-        <v>43257</v>
-      </c>
-      <c r="I13" s="1">
         <v>43265</v>
       </c>
-      <c r="M13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('37e7875cdce5a9e5b3a692971f370151','3fecd6727aed19735e06945b7c3e49c9','delivered','18/05/2018','18/05/2018','21/05/2018','06/06/2018','14/06/2018')</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('37e7875cdce5a9e5b3a692971f370151','3fecd6727aed19735e06945b7c3e49c9','1','18/05/2018','18/05/2018','21/05/2018','06/06/2018','14/06/2018')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42810</v>
       </c>
       <c r="E14" s="1">
         <v>42810</v>
       </c>
       <c r="F14" s="1">
-        <v>42810</v>
+        <v>42814</v>
       </c>
       <c r="G14" s="1">
-        <v>42814</v>
+        <v>42849</v>
       </c>
       <c r="H14" s="1">
-        <v>42849</v>
-      </c>
-      <c r="I14" s="1">
         <v>42844</v>
       </c>
-      <c r="M14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3c314f50bc654f3c4e317b055681dff9','c17d38e818f10c91ebcd036bc835a648','delivered','16/03/2017','16/03/2017','20/03/2017','24/04/2017','19/04/2017')</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3c314f50bc654f3c4e317b055681dff9','c17d38e818f10c91ebcd036bc835a648','1','16/03/2017','16/03/2017','20/03/2017','24/04/2017','19/04/2017')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43109</v>
       </c>
       <c r="E15" s="1">
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="F15" s="1">
-        <v>43110</v>
+        <v>43111</v>
       </c>
       <c r="G15" s="1">
-        <v>43111</v>
+        <v>43119</v>
       </c>
       <c r="H15" s="1">
-        <v>43119</v>
-      </c>
-      <c r="I15" s="1">
         <v>43137</v>
       </c>
-      <c r="M15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('421e787a5dec780e5db14facee9bdab5','ef4b4f3a32448a53c0692f135e4e9bbb','delivered','09/01/2018','10/01/2018','11/01/2018','19/01/2018','06/02/2018')</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('421e787a5dec780e5db14facee9bdab5','ef4b4f3a32448a53c0692f135e4e9bbb','1','09/01/2018','10/01/2018','11/01/2018','19/01/2018','06/02/2018')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43285</v>
       </c>
       <c r="E16" s="1">
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="F16" s="1">
         <v>43286</v>
       </c>
       <c r="G16" s="1">
-        <v>43286</v>
+        <v>43290</v>
       </c>
       <c r="H16" s="1">
-        <v>43290</v>
-      </c>
-      <c r="I16" s="1">
         <v>43304</v>
       </c>
-      <c r="M16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('4fc44d78867142c627497b60a7e0228a','e494ff798e6549f9ba9747f00f5681c2','delivered','04/07/2018','05/07/2018','05/07/2018','09/07/2018','23/07/2018')</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('4fc44d78867142c627497b60a7e0228a','e494ff798e6549f9ba9747f00f5681c2','1','04/07/2018','05/07/2018','05/07/2018','09/07/2018','23/07/2018')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>42</v>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43316</v>
       </c>
       <c r="E17" s="1">
-        <v>43316</v>
-      </c>
-      <c r="F17" s="1">
         <v>43317</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="H17" s="1">
         <v>43325</v>
       </c>
-      <c r="M17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('583174fbe37d3d5f0d6661be3aad1786','e545e697bb9d1b81e0a702121d4e94d5','canceled','04/08/2018','05/08/2018','00/01/1900','00/01/1900','13/08/2018')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('583174fbe37d3d5f0d6661be3aad1786','e545e697bb9d1b81e0a702121d4e94d5','6','04/08/2018','05/08/2018','00/01/1900','00/01/1900','13/08/2018')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>42882</v>
       </c>
       <c r="E18" s="1">
         <v>42882</v>
       </c>
       <c r="F18" s="1">
-        <v>42882</v>
+        <v>42884</v>
       </c>
       <c r="G18" s="1">
-        <v>42884</v>
+        <v>42889</v>
       </c>
       <c r="H18" s="1">
-        <v>42889</v>
-      </c>
-      <c r="I18" s="1">
         <v>42907</v>
       </c>
-      <c r="M18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('5e6bf5e993fb83ee6af7a9f8a954e807','a72c88547dfde272c230dc57c9f04dda','delivered','27/05/2017','27/05/2017','29/05/2017','03/06/2017','21/06/2017')</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('5e6bf5e993fb83ee6af7a9f8a954e807','a72c88547dfde272c230dc57c9f04dda','1','27/05/2017','27/05/2017','29/05/2017','03/06/2017','21/06/2017')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43326</v>
       </c>
       <c r="E19" s="1">
         <v>43326</v>
       </c>
       <c r="F19" s="1">
-        <v>43326</v>
+        <v>43335</v>
       </c>
       <c r="G19" s="1">
-        <v>43335</v>
+        <v>43336</v>
       </c>
       <c r="H19" s="1">
-        <v>43336</v>
-      </c>
-      <c r="I19" s="1">
         <v>43343</v>
       </c>
-      <c r="M19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('677c865b89aa97e7dbeb4bfbb50bbcfd','529d3f46584a8fa9027777a9c7d5a1fc','delivered','14/08/2018','14/08/2018','23/08/2018','24/08/2018','31/08/2018')</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('677c865b89aa97e7dbeb4bfbb50bbcfd','529d3f46584a8fa9027777a9c7d5a1fc','1','14/08/2018','14/08/2018','23/08/2018','24/08/2018','31/08/2018')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43175</v>
       </c>
       <c r="E20" s="1">
         <v>43175</v>
       </c>
       <c r="F20" s="1">
-        <v>43175</v>
+        <v>43179</v>
       </c>
       <c r="G20" s="1">
-        <v>43179</v>
+        <v>43201</v>
       </c>
       <c r="H20" s="1">
-        <v>43201</v>
-      </c>
-      <c r="I20" s="1">
         <v>43196</v>
       </c>
-      <c r="M20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('68e55ca79d04a79f20d4bfc0146f4b66','30e6e854c81fa16f46a5d7f3ab025e6f','delivered','16/03/2018','16/03/2018','20/03/2018','11/04/2018','06/04/2018')</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('68e55ca79d04a79f20d4bfc0146f4b66','30e6e854c81fa16f46a5d7f3ab025e6f','1','16/03/2018','16/03/2018','20/03/2018','11/04/2018','06/04/2018')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>42997</v>
       </c>
       <c r="E21" s="1">
         <v>42997</v>
       </c>
       <c r="F21" s="1">
-        <v>42997</v>
+        <v>42998</v>
       </c>
       <c r="G21" s="1">
-        <v>42998</v>
+        <v>43006</v>
       </c>
       <c r="H21" s="1">
-        <v>43006</v>
-      </c>
-      <c r="I21" s="1">
         <v>43018</v>
       </c>
-      <c r="M21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('70a752414a13d09cc1f2b437b914b28e','db3234528c502acda9991fd53d7223d6','delivered','19/09/2017','19/09/2017','20/09/2017','28/09/2017','10/10/2017')</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('70a752414a13d09cc1f2b437b914b28e','db3234528c502acda9991fd53d7223d6','1','19/09/2017','19/09/2017','20/09/2017','28/09/2017','10/10/2017')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43135</v>
       </c>
       <c r="E22" s="1">
         <v>43135</v>
       </c>
       <c r="F22" s="1">
-        <v>43135</v>
+        <v>43137</v>
       </c>
       <c r="G22" s="1">
-        <v>43137</v>
+        <v>43142</v>
       </c>
       <c r="H22" s="1">
-        <v>43142</v>
-      </c>
-      <c r="I22" s="1">
         <v>43160</v>
       </c>
-      <c r="M22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7139cfc52657eafe990b5b23ed163482','05929b58add0a2e46bb430439b7130a9','delivered','04/02/2018','04/02/2018','06/02/2018','11/02/2018','01/03/2018')</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7139cfc52657eafe990b5b23ed163482','05929b58add0a2e46bb430439b7130a9','1','04/02/2018','04/02/2018','06/02/2018','11/02/2018','01/03/2018')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43060</v>
       </c>
       <c r="E23" s="1">
         <v>43060</v>
@@ -2841,328 +2860,328 @@
         <v>43060</v>
       </c>
       <c r="G23" s="1">
-        <v>43060</v>
+        <v>43070</v>
       </c>
       <c r="H23" s="1">
-        <v>43070</v>
-      </c>
-      <c r="I23" s="1">
         <v>43084</v>
       </c>
-      <c r="M23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('79832b7cb59ac6f887088ffd686e1d5e','ce3e77ff426cf554944d321064dd87f2','delivered','21/11/2017','21/11/2017','21/11/2017','01/12/2017','15/12/2017')</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('79832b7cb59ac6f887088ffd686e1d5e','ce3e77ff426cf554944d321064dd87f2','1','21/11/2017','21/11/2017','21/11/2017','01/12/2017','15/12/2017')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42975</v>
       </c>
       <c r="E24" s="1">
-        <v>42975</v>
+        <v>42976</v>
       </c>
       <c r="F24" s="1">
         <v>42976</v>
       </c>
       <c r="G24" s="1">
-        <v>42976</v>
+        <v>42986</v>
       </c>
       <c r="H24" s="1">
-        <v>42986</v>
-      </c>
-      <c r="I24" s="1">
         <v>42992</v>
       </c>
-      <c r="M24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7c9956750739a47dba7a6928ba2f0245','b65dda35fa1e480e28ded92bd5efe474','delivered','28/08/2017','29/08/2017','29/08/2017','08/09/2017','14/09/2017')</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7c9956750739a47dba7a6928ba2f0245','b65dda35fa1e480e28ded92bd5efe474','1','28/08/2017','29/08/2017','29/08/2017','08/09/2017','14/09/2017')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42900</v>
       </c>
       <c r="E25" s="1">
-        <v>42900</v>
+        <v>42901</v>
       </c>
       <c r="F25" s="1">
-        <v>42901</v>
+        <v>42902</v>
       </c>
       <c r="G25" s="1">
-        <v>42902</v>
+        <v>42908</v>
       </c>
       <c r="H25" s="1">
-        <v>42908</v>
-      </c>
-      <c r="I25" s="1">
         <v>42923</v>
       </c>
-      <c r="M25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('84cec4f65c7a4f2f54c294a30224a594','61a1d82e44d450a06016bb941595446d','delivered','14/06/2017','15/06/2017','16/06/2017','22/06/2017','07/07/2017')</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('84cec4f65c7a4f2f54c294a30224a594','61a1d82e44d450a06016bb941595446d','1','14/06/2017','15/06/2017','16/06/2017','22/06/2017','07/07/2017')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43105</v>
       </c>
       <c r="E26" s="1">
         <v>43105</v>
       </c>
       <c r="F26" s="1">
-        <v>43105</v>
+        <v>43108</v>
       </c>
       <c r="G26" s="1">
-        <v>43108</v>
+        <v>43150</v>
       </c>
       <c r="H26" s="1">
-        <v>43150</v>
-      </c>
-      <c r="I26" s="1">
         <v>43137</v>
       </c>
-      <c r="M26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('88096595631e8d26b658306256e3ce34','29a48e3e901b5187dae9af8a5563c795','delivered','05/01/2018','05/01/2018','08/01/2018','19/02/2018','06/02/2018')</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('88096595631e8d26b658306256e3ce34','29a48e3e901b5187dae9af8a5563c795','1','05/01/2018','05/01/2018','08/01/2018','19/02/2018','06/02/2018')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42923</v>
       </c>
       <c r="E27" s="1">
         <v>42923</v>
       </c>
       <c r="F27" s="1">
-        <v>42923</v>
+        <v>42924</v>
       </c>
       <c r="G27" s="1">
-        <v>42924</v>
+        <v>42934</v>
       </c>
       <c r="H27" s="1">
-        <v>42934</v>
-      </c>
-      <c r="I27" s="1">
         <v>42947</v>
       </c>
-      <c r="M27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('8ba3f3a9292fbc22a8b7dff752bbcd37','0315a87fba4dab4865f2071777b98e87','delivered','07/07/2017','07/07/2017','08/07/2017','18/07/2017','31/07/2017')</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('8ba3f3a9292fbc22a8b7dff752bbcd37','0315a87fba4dab4865f2071777b98e87','1','07/07/2017','07/07/2017','08/07/2017','18/07/2017','31/07/2017')</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43109</v>
       </c>
       <c r="E28" s="1">
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="F28" s="1">
         <v>43110</v>
       </c>
       <c r="G28" s="1">
-        <v>43110</v>
+        <v>43124</v>
       </c>
       <c r="H28" s="1">
-        <v>43124</v>
-      </c>
-      <c r="I28" s="1">
         <v>43133</v>
       </c>
-      <c r="M28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('9bcc43446a687456408f7c92cf486f48','1b4fbf469a7ab0237b99420da733202e','delivered','09/01/2018','10/01/2018','10/01/2018','24/01/2018','02/02/2018')</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('9bcc43446a687456408f7c92cf486f48','1b4fbf469a7ab0237b99420da733202e','1','09/01/2018','10/01/2018','10/01/2018','24/01/2018','02/02/2018')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42991</v>
       </c>
       <c r="E29" s="1">
         <v>42991</v>
       </c>
       <c r="F29" s="1">
-        <v>42991</v>
+        <v>42997</v>
       </c>
       <c r="G29" s="1">
-        <v>42997</v>
+        <v>43013</v>
       </c>
       <c r="H29" s="1">
-        <v>43013</v>
-      </c>
-      <c r="I29" s="1">
         <v>43019</v>
       </c>
-      <c r="M29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('a9953b2f0b1665ac7586cc5a6ac8f58c','1f5856eeda57cbd78ba0dcdddd0439e4','delivered','13/09/2017','13/09/2017','19/09/2017','05/10/2017','11/10/2017')</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('a9953b2f0b1665ac7586cc5a6ac8f58c','1f5856eeda57cbd78ba0dcdddd0439e4','1','13/09/2017','13/09/2017','19/09/2017','05/10/2017','11/10/2017')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43214</v>
       </c>
       <c r="E30" s="1">
         <v>43214</v>
       </c>
       <c r="F30" s="1">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="G30" s="1">
-        <v>43215</v>
+        <v>43232</v>
       </c>
       <c r="H30" s="1">
-        <v>43232</v>
-      </c>
-      <c r="I30" s="1">
         <v>43241</v>
       </c>
-      <c r="M30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('aad1dcbe4c9fe2e3486e5e04c6649097','2438ba50f3a77cbfd3377900835fb526','delivered','24/04/2018','24/04/2018','25/04/2018','12/05/2018','21/05/2018')</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('aad1dcbe4c9fe2e3486e5e04c6649097','2438ba50f3a77cbfd3377900835fb526','1','24/04/2018','24/04/2018','25/04/2018','12/05/2018','21/05/2018')</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
       <c r="B31" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
-        <v>10</v>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43112</v>
       </c>
       <c r="E31" s="1">
         <v>43112</v>
       </c>
       <c r="F31" s="1">
-        <v>43112</v>
+        <v>43115</v>
       </c>
       <c r="G31" s="1">
-        <v>43115</v>
+        <v>43151</v>
       </c>
       <c r="H31" s="1">
-        <v>43151</v>
-      </c>
-      <c r="I31" s="1">
         <v>43139</v>
       </c>
-      <c r="M31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae08a26b052c48419e21581f9f01d47e','d80952ace947b1e43b7a5d279da00cd3','delivered','12/01/2018','12/01/2018','15/01/2018','20/02/2018','08/02/2018')</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae08a26b052c48419e21581f9f01d47e','d80952ace947b1e43b7a5d279da00cd3','1','12/01/2018','12/01/2018','15/01/2018','20/02/2018','08/02/2018')</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43158</v>
       </c>
       <c r="E32" s="1">
         <v>43158</v>
       </c>
       <c r="F32" s="1">
-        <v>43158</v>
+        <v>43166</v>
       </c>
       <c r="G32" s="1">
-        <v>43166</v>
+        <v>43175</v>
       </c>
       <c r="H32" s="1">
-        <v>43175</v>
-      </c>
-      <c r="I32" s="1">
         <v>43181</v>
       </c>
-      <c r="M32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae168dfba236919411fe08f336fefa44','63572a1269de35c881dc1ca268e20fa0','delivered','27/02/2018','27/02/2018','07/03/2018','16/03/2018','22/03/2018')</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae168dfba236919411fe08f336fefa44','63572a1269de35c881dc1ca268e20fa0','1','27/02/2018','27/02/2018','07/03/2018','16/03/2018','22/03/2018')</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C33" t="s">
-        <v>10</v>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43172</v>
       </c>
       <c r="E33" s="1">
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F33" s="1">
-        <v>43174</v>
+        <v>43175</v>
       </c>
       <c r="G33" s="1">
-        <v>43175</v>
+        <v>43180</v>
       </c>
       <c r="H33" s="1">
-        <v>43180</v>
-      </c>
-      <c r="I33" s="1">
         <v>43192</v>
       </c>
-      <c r="M33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('af32671d0b8ce510a94d9111d97371d3','ccafbef5836bb3f6604cd55c75d54b4b','delivered','13/03/2018','15/03/2018','16/03/2018','21/03/2018','02/04/2018')</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('af32671d0b8ce510a94d9111d97371d3','ccafbef5836bb3f6604cd55c75d54b4b','1','13/03/2018','15/03/2018','16/03/2018','21/03/2018','02/04/2018')</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43326</v>
       </c>
       <c r="E34" s="1">
         <v>43326</v>
@@ -3171,28 +3190,28 @@
         <v>43326</v>
       </c>
       <c r="G34" s="1">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="H34" s="1">
-        <v>43327</v>
-      </c>
-      <c r="I34" s="1">
         <v>43333</v>
       </c>
-      <c r="M34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('b89b5e15757b5d96e7d67c969324aeca','cd6b3de9793104fb781a4908b6f8a0e6','delivered','14/08/2018','14/08/2018','14/08/2018','15/08/2018','21/08/2018')</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('b89b5e15757b5d96e7d67c969324aeca','cd6b3de9793104fb781a4908b6f8a0e6','1','14/08/2018','14/08/2018','14/08/2018','15/08/2018','21/08/2018')</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="C35" t="s">
-        <v>10</v>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43333</v>
       </c>
       <c r="E35" s="1">
         <v>43333</v>
@@ -3201,377 +3220,374 @@
         <v>43333</v>
       </c>
       <c r="G35" s="1">
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="H35" s="1">
-        <v>43334</v>
-      </c>
-      <c r="I35" s="1">
         <v>43336</v>
       </c>
-      <c r="M35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('be672f99f61bb90b0430f407ba4378cb','8342323ca97ec421480430c2a893aca2','delivered','21/08/2018','21/08/2018','21/08/2018','22/08/2018','24/08/2018')</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('be672f99f61bb90b0430f407ba4378cb','8342323ca97ec421480430c2a893aca2','1','21/08/2018','21/08/2018','21/08/2018','22/08/2018','24/08/2018')</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="C36" t="s">
-        <v>10</v>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43111</v>
       </c>
       <c r="E36" s="1">
-        <v>43111</v>
+        <v>43112</v>
       </c>
       <c r="F36" s="1">
-        <v>43112</v>
+        <v>43113</v>
       </c>
       <c r="G36" s="1">
-        <v>43113</v>
+        <v>43117</v>
       </c>
       <c r="H36" s="1">
-        <v>43117</v>
-      </c>
-      <c r="I36" s="1">
         <v>43132</v>
       </c>
-      <c r="M36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('cf73e2cb1f4a9480ed70c154da3d954a','ef1ed1347404166e73e8f3977ffcbca0','delivered','11/01/2018','12/01/2018','13/01/2018','17/01/2018','01/02/2018')</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('cf73e2cb1f4a9480ed70c154da3d954a','ef1ed1347404166e73e8f3977ffcbca0','1','11/01/2018','12/01/2018','13/01/2018','17/01/2018','01/02/2018')</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
       </c>
-      <c r="C37" t="s">
-        <v>10</v>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>42936</v>
       </c>
       <c r="E37" s="1">
         <v>42936</v>
       </c>
       <c r="F37" s="1">
-        <v>42936</v>
+        <v>42940</v>
       </c>
       <c r="G37" s="1">
-        <v>42940</v>
+        <v>42947</v>
       </c>
       <c r="H37" s="1">
-        <v>42947</v>
-      </c>
-      <c r="I37" s="1">
         <v>42968</v>
       </c>
-      <c r="M37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d17ebef6117650c283479ff4dca49c6f','05e86ce92eb1b627c2296627078d237c','delivered','20/07/2017','20/07/2017','24/07/2017','31/07/2017','21/08/2017')</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d17ebef6117650c283479ff4dca49c6f','05e86ce92eb1b627c2296627078d237c','1','20/07/2017','20/07/2017','24/07/2017','31/07/2017','21/08/2017')</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" t="s">
-        <v>10</v>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43174</v>
       </c>
       <c r="E38" s="1">
         <v>43174</v>
       </c>
       <c r="F38" s="1">
-        <v>43174</v>
+        <v>43175</v>
       </c>
       <c r="G38" s="1">
-        <v>43175</v>
+        <v>43179</v>
       </c>
       <c r="H38" s="1">
-        <v>43179</v>
-      </c>
-      <c r="I38" s="1">
         <v>43187</v>
       </c>
-      <c r="M38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d28f2bc60aaf4da8d97ff1319fdffab4','91c6fb2b7b643426eb8f72f1a3e422d1','delivered','15/03/2018','15/03/2018','16/03/2018','20/03/2018','28/03/2018')</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d28f2bc60aaf4da8d97ff1319fdffab4','91c6fb2b7b643426eb8f72f1a3e422d1','1','15/03/2018','15/03/2018','16/03/2018','20/03/2018','28/03/2018')</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" t="s">
-        <v>10</v>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42972</v>
       </c>
       <c r="E39" s="1">
         <v>42972</v>
       </c>
       <c r="F39" s="1">
-        <v>42972</v>
+        <v>42975</v>
       </c>
       <c r="G39" s="1">
-        <v>42975</v>
+        <v>42983</v>
       </c>
       <c r="H39" s="1">
-        <v>42983</v>
-      </c>
-      <c r="I39" s="1">
         <v>42999</v>
       </c>
-      <c r="M39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d39cd8aec30c3829bad1c1b4194b4fd8','87c10876090200b63f130ffb699b2e82','delivered','25/08/2017','25/08/2017','28/08/2017','05/09/2017','21/09/2017')</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d39cd8aec30c3829bad1c1b4194b4fd8','87c10876090200b63f130ffb699b2e82','1','25/08/2017','25/08/2017','28/08/2017','05/09/2017','21/09/2017')</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>87</v>
       </c>
       <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42848</v>
       </c>
       <c r="E40" s="1">
         <v>42848</v>
       </c>
       <c r="F40" s="1">
-        <v>42848</v>
+        <v>42849</v>
       </c>
       <c r="G40" s="1">
-        <v>42849</v>
+        <v>42854</v>
       </c>
       <c r="H40" s="1">
-        <v>42854</v>
-      </c>
-      <c r="I40" s="1">
         <v>42866</v>
       </c>
-      <c r="M40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d7bd0e4afdf94846eb73642b4e3e75c3','12a063cae60cd7bc2f0029514b21d24c','delivered','23/04/2017','23/04/2017','24/04/2017','29/04/2017','11/05/2017')</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d7bd0e4afdf94846eb73642b4e3e75c3','12a063cae60cd7bc2f0029514b21d24c','1','23/04/2017','23/04/2017','24/04/2017','29/04/2017','11/05/2017')</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>89</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43252</v>
       </c>
       <c r="E41" s="1">
         <v>43252</v>
       </c>
       <c r="F41" s="1">
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="G41" s="1">
-        <v>43256</v>
+        <v>43263</v>
       </c>
       <c r="H41" s="1">
-        <v>43263</v>
-      </c>
-      <c r="I41" s="1">
         <v>43280</v>
       </c>
-      <c r="M41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e029f708df3cc108b3264558771605c6','d2aa6bef2582c7482ab992fa89f965bd','delivered','01/06/2018','01/06/2018','05/06/2018','12/06/2018','29/06/2018')</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e029f708df3cc108b3264558771605c6','d2aa6bef2582c7482ab992fa89f965bd','1','01/06/2018','01/06/2018','05/06/2018','12/06/2018','29/06/2018')</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43069</v>
       </c>
       <c r="E42" s="1">
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="F42" s="1">
-        <v>43070</v>
+        <v>43074</v>
       </c>
       <c r="G42" s="1">
-        <v>43074</v>
+        <v>43080</v>
       </c>
       <c r="H42" s="1">
-        <v>43080</v>
-      </c>
-      <c r="I42" s="1">
         <v>43097</v>
       </c>
-      <c r="M42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e1a86e22da680449cba8e136ffa97f8a','fddbbeff104817044cfe82a0c122f473','delivered','30/11/2017','01/12/2017','05/12/2017','11/12/2017','28/12/2017')</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e1a86e22da680449cba8e136ffa97f8a','fddbbeff104817044cfe82a0c122f473','1','30/11/2017','01/12/2017','05/12/2017','11/12/2017','28/12/2017')</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
       <c r="B43" t="s">
         <v>94</v>
       </c>
-      <c r="C43" t="s">
-        <v>10</v>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>43309</v>
       </c>
       <c r="E43" s="1">
-        <v>43309</v>
+        <v>43311</v>
       </c>
       <c r="F43" s="1">
-        <v>43311</v>
+        <v>43313</v>
       </c>
       <c r="G43" s="1">
-        <v>43313</v>
+        <v>43321</v>
       </c>
       <c r="H43" s="1">
-        <v>43321</v>
-      </c>
-      <c r="I43" s="1">
         <v>43329</v>
       </c>
-      <c r="M43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e2e6ee1ed2d7f2f36b05d234983bd7a0','20a92c393edb6c08801eef97295257f7','delivered','28/07/2018','30/07/2018','01/08/2018','09/08/2018','17/08/2018')</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e2e6ee1ed2d7f2f36b05d234983bd7a0','20a92c393edb6c08801eef97295257f7','1','28/07/2018','30/07/2018','01/08/2018','09/08/2018','17/08/2018')</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
       <c r="B44" t="s">
         <v>96</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43238</v>
       </c>
       <c r="E44" s="1">
         <v>43238</v>
       </c>
       <c r="F44" s="1">
-        <v>43238</v>
+        <v>43239</v>
       </c>
       <c r="G44" s="1">
-        <v>43239</v>
+        <v>43242</v>
       </c>
       <c r="H44" s="1">
-        <v>43242</v>
-      </c>
-      <c r="I44" s="1">
         <v>43258</v>
       </c>
-      <c r="M44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e51478e7e277a83743b6f9991dbfa3fb','659ded3e9b43aaf51cf9586d03033b46','delivered','18/05/2018','18/05/2018','19/05/2018','22/05/2018','07/06/2018')</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e51478e7e277a83743b6f9991dbfa3fb','659ded3e9b43aaf51cf9586d03033b46','1','18/05/2018','18/05/2018','19/05/2018','22/05/2018','07/06/2018')</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>97</v>
       </c>
       <c r="B45" t="s">
         <v>98</v>
       </c>
-      <c r="C45" t="s">
-        <v>10</v>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43300</v>
       </c>
       <c r="E45" s="1">
         <v>43300</v>
       </c>
       <c r="F45" s="1">
-        <v>43300</v>
+        <v>43304</v>
       </c>
       <c r="G45" s="1">
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="H45" s="1">
-        <v>43307</v>
-      </c>
-      <c r="I45" s="1">
         <v>43329</v>
       </c>
-      <c r="M45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('eae81d7a6951b80a04eb152e76e3ba55','15652e306d7c3e9098df857da0db3201','delivered','19/07/2018','19/07/2018','23/07/2018','26/07/2018','17/08/2018')</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('eae81d7a6951b80a04eb152e76e3ba55','15652e306d7c3e9098df857da0db3201','1','19/07/2018','19/07/2018','23/07/2018','26/07/2018','17/08/2018')</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>100</v>
       </c>
-      <c r="C46" t="s">
-        <v>10</v>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43154</v>
       </c>
       <c r="E46" s="1">
         <v>43154</v>
       </c>
       <c r="F46" s="1">
-        <v>43154</v>
+        <v>43158</v>
       </c>
       <c r="G46" s="1">
-        <v>43158</v>
+        <v>43160</v>
       </c>
       <c r="H46" s="1">
-        <v>43160</v>
-      </c>
-      <c r="I46" s="1">
         <v>43174</v>
       </c>
-      <c r="M46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('fa612a1874826daa30fed5e3073b9d0d','b51db50e74624ee11ec905f6c8cb92c2','delivered','23/02/2018','23/02/2018','27/02/2018','01/03/2018','15/03/2018')</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('fa612a1874826daa30fed5e3073b9d0d','b51db50e74624ee11ec905f6c8cb92c2','1','23/02/2018','23/02/2018','27/02/2018','01/03/2018','15/03/2018')</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
       </c>
-      <c r="C47" t="s">
-        <v>10</v>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43180</v>
       </c>
       <c r="E47" s="1">
         <v>43180</v>
       </c>
       <c r="F47" s="1">
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="G47" s="1">
-        <v>43181</v>
+        <v>43183</v>
       </c>
       <c r="H47" s="1">
-        <v>43183</v>
-      </c>
-      <c r="I47" s="1">
         <v>43193</v>
       </c>
-      <c r="M47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ff1581e08b3011021e7c7de592ddc81e','0f3c16514be9fe9bdb840983701d2ce6','delivered','21/03/2018','21/03/2018','22/03/2018','24/03/2018','03/04/2018')</v>
+      <c r="L47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ff1581e08b3011021e7c7de592ddc81e','0f3c16514be9fe9bdb840983701d2ce6','1','21/03/2018','21/03/2018','22/03/2018','24/03/2018','03/04/2018')</v>
       </c>
     </row>
   </sheetData>
@@ -3581,12 +3597,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E503FD2-36EC-4835-BD0E-0508210B95DA}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/archive/Datos_orden.xlsx
+++ b/archive/Datos_orden.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudio Analitica\Analisis de Grandes Datos\AGD_ArquitecturaInformacion\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF6B08-79BF-4CCD-B1B4-045E40047028}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA66899-1439-40B3-B50F-E9D9C85CAF1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{535F859A-DE5F-4DA1-A514-62EF85FA905E}"/>
   </bookViews>
   <sheets>
     <sheet name="Origen" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
+    <sheet name="Status" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Origen!$A$1:$H$47</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="116">
   <si>
     <t>order_id</t>
   </si>
@@ -378,19 +378,33 @@
   </si>
   <si>
     <t>approved</t>
+  </si>
+  <si>
+    <t>estado_orden</t>
+  </si>
+  <si>
+    <t>STATUS_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STATUS_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,9 +427,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,7 +748,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +814,7 @@
         <v>104</v>
       </c>
       <c r="L2" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"')")</f>
+        <f t="shared" ref="L2:L47" si="0">+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"')")</f>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('01be2f7ca246adb9112cb75096af2ee0','9561fb5984d862e686beec844488550f','1','43143','43143','43147','43157','43165')</v>
       </c>
       <c r="M2" t="s">
@@ -832,7 +847,7 @@
         <v>42992</v>
       </c>
       <c r="L3" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('04db86e3493b3724ac4bd3c9a397e23c','ad1e6b608a4dca0dd25bf862939cf3aa','1','42975','42977','42978','42989','42992')</v>
       </c>
     </row>
@@ -862,7 +877,7 @@
         <v>43032</v>
       </c>
       <c r="L4" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"','",H4,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('05a82511dd29bef74d8003b015912fd6','ebf7e7691b7e62b2df6bbb5621bf6557','1','42989','42989','42992','43003','43032')</v>
       </c>
     </row>
@@ -892,7 +907,7 @@
         <v>43088</v>
       </c>
       <c r="L5" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"','",G5,"','",H5,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0ce9a24111d850192a933fcaab6fbad3','5bb8de60ca2ca8b01a5ce471802fe10b','1','43063','43063','43075','43082','43088')</v>
       </c>
     </row>
@@ -922,7 +937,7 @@
         <v>43117</v>
       </c>
       <c r="L6" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A6,"','",B6,"','",C6,"','",D6,"','",E6,"','",F6,"','",G6,"','",H6,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0dacf04c5ad59fd5a0cc1faa07c34e39','db13a417a95ad304e9674468c17ade85','1','43088','43088','43089','43152','43117')</v>
       </c>
     </row>
@@ -952,7 +967,7 @@
         <v>43096</v>
       </c>
       <c r="L7" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A7,"','",B7,"','",C7,"','",D7,"','",E7,"','",F7,"','",G7,"','",H7,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('18233451c81fa4cf187fae71d8e8a299','44e8a890084067f1ccc9689987c6d001','1','43068','43069','43069','43086','43096')</v>
       </c>
     </row>
@@ -982,7 +997,7 @@
         <v>43328</v>
       </c>
       <c r="L8" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A8,"','",B8,"','",C8,"','",D8,"','",E8,"','",F8,"','",G8,"','",H8,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('21df4877f402eea02a4c1aab13411b1f','fb68a5552994d81243302fe6a15291a1','1','43314','43314','43319','43320','43328')</v>
       </c>
     </row>
@@ -1012,7 +1027,7 @@
         <v>42801</v>
       </c>
       <c r="L9" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A9,"','",B9,"','",C9,"','",D9,"','",E9,"','",F9,"','",G9,"','",H9,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2526d08a2985e1b276a405915c2d8be9','2450926e09ca55f960204a2789ed4943','1','42770','42770','42773','42780','42801')</v>
       </c>
     </row>
@@ -1042,7 +1057,7 @@
         <v>43174</v>
       </c>
       <c r="L10" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A10,"','",B10,"','",C10,"','",D10,"','",E10,"','",F10,"','",G10,"','",H10,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2e496accb804bb4a59fcd3df574b450c','db859dc699009191be7005581c73865d','1','43164','43164','43167','43171','43174')</v>
       </c>
     </row>
@@ -1072,7 +1087,7 @@
         <v>43201</v>
       </c>
       <c r="L11" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A11,"','",B11,"','",C11,"','",D11,"','",E11,"','",F11,"','",G11,"','",H11,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2eaf8e099d871cd5c22b83b5ea8f6e0e','9d53af6298240d4573ca6e52bcfa6c63','1','43180','43180','43181','43187','43201')</v>
       </c>
     </row>
@@ -1102,7 +1117,7 @@
         <v>43040</v>
       </c>
       <c r="L12" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A12,"','",B12,"','",C12,"','",D12,"','",E12,"','",F12,"','",G12,"','",H12,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3597f6476c27b4e1cc2f58588116f8f5','79e2cae59c2216c721c54ff9c53ad657','1','43011','43012','43014','43031','43040')</v>
       </c>
     </row>
@@ -1132,7 +1147,7 @@
         <v>43265</v>
       </c>
       <c r="L13" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A13,"','",B13,"','",C13,"','",D13,"','",E13,"','",F13,"','",G13,"','",H13,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('37e7875cdce5a9e5b3a692971f370151','3fecd6727aed19735e06945b7c3e49c9','1','43238','43238','43241','43257','43265')</v>
       </c>
     </row>
@@ -1162,7 +1177,7 @@
         <v>42844</v>
       </c>
       <c r="L14" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A14,"','",B14,"','",C14,"','",D14,"','",E14,"','",F14,"','",G14,"','",H14,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3c314f50bc654f3c4e317b055681dff9','c17d38e818f10c91ebcd036bc835a648','1','42810','42810','42814','42849','42844')</v>
       </c>
     </row>
@@ -1192,7 +1207,7 @@
         <v>43137</v>
       </c>
       <c r="L15" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A15,"','",B15,"','",C15,"','",D15,"','",E15,"','",F15,"','",G15,"','",H15,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('421e787a5dec780e5db14facee9bdab5','ef4b4f3a32448a53c0692f135e4e9bbb','1','43109','43110','43111','43119','43137')</v>
       </c>
     </row>
@@ -1222,7 +1237,7 @@
         <v>43304</v>
       </c>
       <c r="L16" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A16,"','",B16,"','",C16,"','",D16,"','",E16,"','",F16,"','",G16,"','",H16,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('4fc44d78867142c627497b60a7e0228a','e494ff798e6549f9ba9747f00f5681c2','1','43285','43286','43286','43290','43304')</v>
       </c>
     </row>
@@ -1252,7 +1267,7 @@
         <v>43325</v>
       </c>
       <c r="L17" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A17,"','",B17,"','",C17,"','",D17,"','",E17,"','",F17,"','",G17,"','",H17,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('583174fbe37d3d5f0d6661be3aad1786','e545e697bb9d1b81e0a702121d4e94d5','6','43316','43317','00/01/1900','00/01/1900','43325')</v>
       </c>
     </row>
@@ -1282,7 +1297,7 @@
         <v>42907</v>
       </c>
       <c r="L18" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A18,"','",B18,"','",C18,"','",D18,"','",E18,"','",F18,"','",G18,"','",H18,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('5e6bf5e993fb83ee6af7a9f8a954e807','a72c88547dfde272c230dc57c9f04dda','1','42882','42882','42884','42889','42907')</v>
       </c>
     </row>
@@ -1312,7 +1327,7 @@
         <v>43343</v>
       </c>
       <c r="L19" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A19,"','",B19,"','",C19,"','",D19,"','",E19,"','",F19,"','",G19,"','",H19,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('677c865b89aa97e7dbeb4bfbb50bbcfd','529d3f46584a8fa9027777a9c7d5a1fc','1','43326','43326','43335','43336','43343')</v>
       </c>
     </row>
@@ -1342,7 +1357,7 @@
         <v>43196</v>
       </c>
       <c r="L20" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A20,"','",B20,"','",C20,"','",D20,"','",E20,"','",F20,"','",G20,"','",H20,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('68e55ca79d04a79f20d4bfc0146f4b66','30e6e854c81fa16f46a5d7f3ab025e6f','1','43175','43175','43179','43201','43196')</v>
       </c>
     </row>
@@ -1372,7 +1387,7 @@
         <v>43018</v>
       </c>
       <c r="L21" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A21,"','",B21,"','",C21,"','",D21,"','",E21,"','",F21,"','",G21,"','",H21,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('70a752414a13d09cc1f2b437b914b28e','db3234528c502acda9991fd53d7223d6','1','42997','42997','42998','43006','43018')</v>
       </c>
     </row>
@@ -1402,7 +1417,7 @@
         <v>43160</v>
       </c>
       <c r="L22" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A22,"','",B22,"','",C22,"','",D22,"','",E22,"','",F22,"','",G22,"','",H22,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7139cfc52657eafe990b5b23ed163482','05929b58add0a2e46bb430439b7130a9','1','43135','43135','43137','43142','43160')</v>
       </c>
     </row>
@@ -1432,7 +1447,7 @@
         <v>43084</v>
       </c>
       <c r="L23" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A23,"','",B23,"','",C23,"','",D23,"','",E23,"','",F23,"','",G23,"','",H23,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('79832b7cb59ac6f887088ffd686e1d5e','ce3e77ff426cf554944d321064dd87f2','1','43060','43060','43060','43070','43084')</v>
       </c>
     </row>
@@ -1462,7 +1477,7 @@
         <v>42992</v>
       </c>
       <c r="L24" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A24,"','",B24,"','",C24,"','",D24,"','",E24,"','",F24,"','",G24,"','",H24,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7c9956750739a47dba7a6928ba2f0245','b65dda35fa1e480e28ded92bd5efe474','1','42975','42976','42976','42986','42992')</v>
       </c>
     </row>
@@ -1492,7 +1507,7 @@
         <v>42923</v>
       </c>
       <c r="L25" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A25,"','",B25,"','",C25,"','",D25,"','",E25,"','",F25,"','",G25,"','",H25,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('84cec4f65c7a4f2f54c294a30224a594','61a1d82e44d450a06016bb941595446d','1','42900','42901','42902','42908','42923')</v>
       </c>
     </row>
@@ -1522,7 +1537,7 @@
         <v>43137</v>
       </c>
       <c r="L26" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A26,"','",B26,"','",C26,"','",D26,"','",E26,"','",F26,"','",G26,"','",H26,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('88096595631e8d26b658306256e3ce34','29a48e3e901b5187dae9af8a5563c795','1','43105','43105','43108','43150','43137')</v>
       </c>
     </row>
@@ -1552,7 +1567,7 @@
         <v>42947</v>
       </c>
       <c r="L27" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A27,"','",B27,"','",C27,"','",D27,"','",E27,"','",F27,"','",G27,"','",H27,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('8ba3f3a9292fbc22a8b7dff752bbcd37','0315a87fba4dab4865f2071777b98e87','1','42923','42923','42924','42934','42947')</v>
       </c>
     </row>
@@ -1582,7 +1597,7 @@
         <v>43133</v>
       </c>
       <c r="L28" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A28,"','",B28,"','",C28,"','",D28,"','",E28,"','",F28,"','",G28,"','",H28,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('9bcc43446a687456408f7c92cf486f48','1b4fbf469a7ab0237b99420da733202e','1','43109','43110','43110','43124','43133')</v>
       </c>
     </row>
@@ -1612,7 +1627,7 @@
         <v>43019</v>
       </c>
       <c r="L29" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A29,"','",B29,"','",C29,"','",D29,"','",E29,"','",F29,"','",G29,"','",H29,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('a9953b2f0b1665ac7586cc5a6ac8f58c','1f5856eeda57cbd78ba0dcdddd0439e4','1','42991','42991','42997','43013','43019')</v>
       </c>
     </row>
@@ -1642,7 +1657,7 @@
         <v>43241</v>
       </c>
       <c r="L30" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A30,"','",B30,"','",C30,"','",D30,"','",E30,"','",F30,"','",G30,"','",H30,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('aad1dcbe4c9fe2e3486e5e04c6649097','2438ba50f3a77cbfd3377900835fb526','1','43214','43214','43215','43232','43241')</v>
       </c>
     </row>
@@ -1672,7 +1687,7 @@
         <v>43139</v>
       </c>
       <c r="L31" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A31,"','",B31,"','",C31,"','",D31,"','",E31,"','",F31,"','",G31,"','",H31,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae08a26b052c48419e21581f9f01d47e','d80952ace947b1e43b7a5d279da00cd3','1','43112','43112','43115','43151','43139')</v>
       </c>
     </row>
@@ -1702,7 +1717,7 @@
         <v>43181</v>
       </c>
       <c r="L32" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A32,"','",B32,"','",C32,"','",D32,"','",E32,"','",F32,"','",G32,"','",H32,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae168dfba236919411fe08f336fefa44','63572a1269de35c881dc1ca268e20fa0','1','43158','43158','43166','43175','43181')</v>
       </c>
     </row>
@@ -1732,7 +1747,7 @@
         <v>43192</v>
       </c>
       <c r="L33" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A33,"','",B33,"','",C33,"','",D33,"','",E33,"','",F33,"','",G33,"','",H33,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('af32671d0b8ce510a94d9111d97371d3','ccafbef5836bb3f6604cd55c75d54b4b','1','43172','43174','43175','43180','43192')</v>
       </c>
     </row>
@@ -1762,7 +1777,7 @@
         <v>43333</v>
       </c>
       <c r="L34" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A34,"','",B34,"','",C34,"','",D34,"','",E34,"','",F34,"','",G34,"','",H34,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('b89b5e15757b5d96e7d67c969324aeca','cd6b3de9793104fb781a4908b6f8a0e6','1','43326','43326','43326','43327','43333')</v>
       </c>
     </row>
@@ -1792,7 +1807,7 @@
         <v>43336</v>
       </c>
       <c r="L35" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A35,"','",B35,"','",C35,"','",D35,"','",E35,"','",F35,"','",G35,"','",H35,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('be672f99f61bb90b0430f407ba4378cb','8342323ca97ec421480430c2a893aca2','1','43333','43333','43333','43334','43336')</v>
       </c>
     </row>
@@ -1822,7 +1837,7 @@
         <v>43132</v>
       </c>
       <c r="L36" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A36,"','",B36,"','",C36,"','",D36,"','",E36,"','",F36,"','",G36,"','",H36,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('cf73e2cb1f4a9480ed70c154da3d954a','ef1ed1347404166e73e8f3977ffcbca0','1','43111','43112','43113','43117','43132')</v>
       </c>
     </row>
@@ -1852,7 +1867,7 @@
         <v>42968</v>
       </c>
       <c r="L37" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A37,"','",B37,"','",C37,"','",D37,"','",E37,"','",F37,"','",G37,"','",H37,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d17ebef6117650c283479ff4dca49c6f','05e86ce92eb1b627c2296627078d237c','1','42936','42936','42940','42947','42968')</v>
       </c>
     </row>
@@ -1882,7 +1897,7 @@
         <v>43187</v>
       </c>
       <c r="L38" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A38,"','",B38,"','",C38,"','",D38,"','",E38,"','",F38,"','",G38,"','",H38,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d28f2bc60aaf4da8d97ff1319fdffab4','91c6fb2b7b643426eb8f72f1a3e422d1','1','43174','43174','43175','43179','43187')</v>
       </c>
     </row>
@@ -1912,7 +1927,7 @@
         <v>42999</v>
       </c>
       <c r="L39" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A39,"','",B39,"','",C39,"','",D39,"','",E39,"','",F39,"','",G39,"','",H39,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d39cd8aec30c3829bad1c1b4194b4fd8','87c10876090200b63f130ffb699b2e82','1','42972','42972','42975','42983','42999')</v>
       </c>
     </row>
@@ -1942,7 +1957,7 @@
         <v>42866</v>
       </c>
       <c r="L40" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A40,"','",B40,"','",C40,"','",D40,"','",E40,"','",F40,"','",G40,"','",H40,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d7bd0e4afdf94846eb73642b4e3e75c3','12a063cae60cd7bc2f0029514b21d24c','1','42848','42848','42849','42854','42866')</v>
       </c>
     </row>
@@ -1972,7 +1987,7 @@
         <v>43280</v>
       </c>
       <c r="L41" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A41,"','",B41,"','",C41,"','",D41,"','",E41,"','",F41,"','",G41,"','",H41,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e029f708df3cc108b3264558771605c6','d2aa6bef2582c7482ab992fa89f965bd','1','43252','43252','43256','43263','43280')</v>
       </c>
     </row>
@@ -2002,7 +2017,7 @@
         <v>43097</v>
       </c>
       <c r="L42" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A42,"','",B42,"','",C42,"','",D42,"','",E42,"','",F42,"','",G42,"','",H42,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e1a86e22da680449cba8e136ffa97f8a','fddbbeff104817044cfe82a0c122f473','1','43069','43070','43074','43080','43097')</v>
       </c>
     </row>
@@ -2032,7 +2047,7 @@
         <v>43329</v>
       </c>
       <c r="L43" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A43,"','",B43,"','",C43,"','",D43,"','",E43,"','",F43,"','",G43,"','",H43,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e2e6ee1ed2d7f2f36b05d234983bd7a0','20a92c393edb6c08801eef97295257f7','1','43309','43311','43313','43321','43329')</v>
       </c>
     </row>
@@ -2062,7 +2077,7 @@
         <v>43258</v>
       </c>
       <c r="L44" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A44,"','",B44,"','",C44,"','",D44,"','",E44,"','",F44,"','",G44,"','",H44,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e51478e7e277a83743b6f9991dbfa3fb','659ded3e9b43aaf51cf9586d03033b46','1','43238','43238','43239','43242','43258')</v>
       </c>
     </row>
@@ -2092,7 +2107,7 @@
         <v>43329</v>
       </c>
       <c r="L45" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A45,"','",B45,"','",C45,"','",D45,"','",E45,"','",F45,"','",G45,"','",H45,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('eae81d7a6951b80a04eb152e76e3ba55','15652e306d7c3e9098df857da0db3201','1','43300','43300','43304','43307','43329')</v>
       </c>
     </row>
@@ -2122,7 +2137,7 @@
         <v>43174</v>
       </c>
       <c r="L46" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A46,"','",B46,"','",C46,"','",D46,"','",E46,"','",F46,"','",G46,"','",H46,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('fa612a1874826daa30fed5e3073b9d0d','b51db50e74624ee11ec905f6c8cb92c2','1','43154','43154','43158','43160','43174')</v>
       </c>
     </row>
@@ -2152,7 +2167,7 @@
         <v>43193</v>
       </c>
       <c r="L47" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A47,"','",B47,"','",C47,"','",D47,"','",E47,"','",F47,"','",G47,"','",H47,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ff1581e08b3011021e7c7de592ddc81e','0f3c16514be9fe9bdb840983701d2ce6','1','43180','43180','43181','43183','43193')</v>
       </c>
     </row>
@@ -2167,7 +2182,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,8 +2197,8 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2233,8 +2248,8 @@
         <v>104</v>
       </c>
       <c r="L2" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A2,"','",B2,"','",C2,"','",TEXT(D2,"dd/MM/yyyy"),"','",TEXT(E2,"dd/MM/yyyy"),"','",TEXT(F2,"dd/MM/yyyy"),"','",TEXT(G2,"dd/MM/yyyy"),"','",TEXT(H2,"dd/MM/yyyy"),"')")</f>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('01be2f7ca246adb9112cb75096af2ee0','9561fb5984d862e686beec844488550f','1','12/02/2018','12/02/2018','16/02/2018','26/02/2018','06/03/2018')</v>
+        <f>+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A2,"','",B2,"','",C2,"','",TEXT(D2,"MM/dd/yyyy"),"','",TEXT(E2,"MM/dd/yyyy"),"','",TEXT(F2,"MM/dd/yyyy"),"','",TEXT(G2,"MM/dd/yyyy"),"','",TEXT(H2,"MM/dd/yyyy"),"');")</f>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('01be2f7ca246adb9112cb75096af2ee0','9561fb5984d862e686beec844488550f','1','02/12/2018','02/12/2018','02/16/2018','02/26/2018','03/06/2018');</v>
       </c>
       <c r="M2" t="s">
         <v>106</v>
@@ -2266,8 +2281,8 @@
         <v>42992</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L47" si="0">+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A3,"','",B3,"','",C3,"','",TEXT(D3,"dd/MM/yyyy"),"','",TEXT(E3,"dd/MM/yyyy"),"','",TEXT(F3,"dd/MM/yyyy"),"','",TEXT(G3,"dd/MM/yyyy"),"','",TEXT(H3,"dd/MM/yyyy"),"')")</f>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('04db86e3493b3724ac4bd3c9a397e23c','ad1e6b608a4dca0dd25bf862939cf3aa','1','28/08/2017','30/08/2017','31/08/2017','11/09/2017','14/09/2017')</v>
+        <f t="shared" ref="L3:L47" si="0">+CONCATENATE("INSERT INTO ",$K$2," (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,",",$G$1,",",$H$1,") VALUES ('",A3,"','",B3,"','",C3,"','",TEXT(D3,"MM/dd/yyyy"),"','",TEXT(E3,"MM/dd/yyyy"),"','",TEXT(F3,"MM/dd/yyyy"),"','",TEXT(G3,"MM/dd/yyyy"),"','",TEXT(H3,"MM/dd/yyyy"),"');")</f>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('04db86e3493b3724ac4bd3c9a397e23c','ad1e6b608a4dca0dd25bf862939cf3aa','1','08/28/2017','08/30/2017','08/31/2017','09/11/2017','09/14/2017');</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2297,7 +2312,7 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('05a82511dd29bef74d8003b015912fd6','ebf7e7691b7e62b2df6bbb5621bf6557','1','11/09/2017','11/09/2017','14/09/2017','25/09/2017','24/10/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('05a82511dd29bef74d8003b015912fd6','ebf7e7691b7e62b2df6bbb5621bf6557','1','09/11/2017','09/11/2017','09/14/2017','09/25/2017','10/24/2017');</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2327,7 +2342,7 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0ce9a24111d850192a933fcaab6fbad3','5bb8de60ca2ca8b01a5ce471802fe10b','1','24/11/2017','24/11/2017','06/12/2017','13/12/2017','19/12/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0ce9a24111d850192a933fcaab6fbad3','5bb8de60ca2ca8b01a5ce471802fe10b','1','11/24/2017','11/24/2017','12/06/2017','12/13/2017','12/19/2017');</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2357,7 +2372,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0dacf04c5ad59fd5a0cc1faa07c34e39','db13a417a95ad304e9674468c17ade85','1','19/12/2017','19/12/2017','20/12/2017','21/02/2018','17/01/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('0dacf04c5ad59fd5a0cc1faa07c34e39','db13a417a95ad304e9674468c17ade85','1','12/19/2017','12/19/2017','12/20/2017','02/21/2018','01/17/2018');</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2387,7 +2402,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('18233451c81fa4cf187fae71d8e8a299','44e8a890084067f1ccc9689987c6d001','1','29/11/2017','30/11/2017','30/11/2017','17/12/2017','27/12/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('18233451c81fa4cf187fae71d8e8a299','44e8a890084067f1ccc9689987c6d001','1','11/29/2017','11/30/2017','11/30/2017','12/17/2017','12/27/2017');</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2417,7 +2432,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('21df4877f402eea02a4c1aab13411b1f','fb68a5552994d81243302fe6a15291a1','1','02/08/2018','02/08/2018','07/08/2018','08/08/2018','16/08/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('21df4877f402eea02a4c1aab13411b1f','fb68a5552994d81243302fe6a15291a1','1','08/02/2018','08/02/2018','08/07/2018','08/08/2018','08/16/2018');</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2447,7 +2462,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2526d08a2985e1b276a405915c2d8be9','2450926e09ca55f960204a2789ed4943','1','04/02/2017','04/02/2017','07/02/2017','14/02/2017','07/03/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2526d08a2985e1b276a405915c2d8be9','2450926e09ca55f960204a2789ed4943','1','02/04/2017','02/04/2017','02/07/2017','02/14/2017','03/07/2017');</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2477,7 +2492,7 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2e496accb804bb4a59fcd3df574b450c','db859dc699009191be7005581c73865d','1','05/03/2018','05/03/2018','08/03/2018','12/03/2018','15/03/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2e496accb804bb4a59fcd3df574b450c','db859dc699009191be7005581c73865d','1','03/05/2018','03/05/2018','03/08/2018','03/12/2018','03/15/2018');</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2507,7 +2522,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2eaf8e099d871cd5c22b83b5ea8f6e0e','9d53af6298240d4573ca6e52bcfa6c63','1','21/03/2018','21/03/2018','22/03/2018','28/03/2018','11/04/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('2eaf8e099d871cd5c22b83b5ea8f6e0e','9d53af6298240d4573ca6e52bcfa6c63','1','03/21/2018','03/21/2018','03/22/2018','03/28/2018','04/11/2018');</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2537,7 +2552,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3597f6476c27b4e1cc2f58588116f8f5','79e2cae59c2216c721c54ff9c53ad657','1','03/10/2017','04/10/2017','06/10/2017','23/10/2017','01/11/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3597f6476c27b4e1cc2f58588116f8f5','79e2cae59c2216c721c54ff9c53ad657','1','10/03/2017','10/04/2017','10/06/2017','10/23/2017','11/01/2017');</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2567,7 +2582,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('37e7875cdce5a9e5b3a692971f370151','3fecd6727aed19735e06945b7c3e49c9','1','18/05/2018','18/05/2018','21/05/2018','06/06/2018','14/06/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('37e7875cdce5a9e5b3a692971f370151','3fecd6727aed19735e06945b7c3e49c9','1','05/18/2018','05/18/2018','05/21/2018','06/06/2018','06/14/2018');</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2597,7 +2612,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3c314f50bc654f3c4e317b055681dff9','c17d38e818f10c91ebcd036bc835a648','1','16/03/2017','16/03/2017','20/03/2017','24/04/2017','19/04/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('3c314f50bc654f3c4e317b055681dff9','c17d38e818f10c91ebcd036bc835a648','1','03/16/2017','03/16/2017','03/20/2017','04/24/2017','04/19/2017');</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2627,7 +2642,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('421e787a5dec780e5db14facee9bdab5','ef4b4f3a32448a53c0692f135e4e9bbb','1','09/01/2018','10/01/2018','11/01/2018','19/01/2018','06/02/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('421e787a5dec780e5db14facee9bdab5','ef4b4f3a32448a53c0692f135e4e9bbb','1','01/09/2018','01/10/2018','01/11/2018','01/19/2018','02/06/2018');</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2657,7 +2672,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('4fc44d78867142c627497b60a7e0228a','e494ff798e6549f9ba9747f00f5681c2','1','04/07/2018','05/07/2018','05/07/2018','09/07/2018','23/07/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('4fc44d78867142c627497b60a7e0228a','e494ff798e6549f9ba9747f00f5681c2','1','07/04/2018','07/05/2018','07/05/2018','07/09/2018','07/23/2018');</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2676,18 +2691,18 @@
       <c r="E17" s="1">
         <v>43317</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>31</v>
+      <c r="F17" s="1">
+        <v>43322</v>
+      </c>
+      <c r="G17" s="1">
+        <v>43322</v>
       </c>
       <c r="H17" s="1">
         <v>43325</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('583174fbe37d3d5f0d6661be3aad1786','e545e697bb9d1b81e0a702121d4e94d5','6','04/08/2018','05/08/2018','00/01/1900','00/01/1900','13/08/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('583174fbe37d3d5f0d6661be3aad1786','e545e697bb9d1b81e0a702121d4e94d5','6','08/04/2018','08/05/2018','08/10/2018','08/10/2018','08/13/2018');</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2717,7 +2732,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('5e6bf5e993fb83ee6af7a9f8a954e807','a72c88547dfde272c230dc57c9f04dda','1','27/05/2017','27/05/2017','29/05/2017','03/06/2017','21/06/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('5e6bf5e993fb83ee6af7a9f8a954e807','a72c88547dfde272c230dc57c9f04dda','1','05/27/2017','05/27/2017','05/29/2017','06/03/2017','06/21/2017');</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2747,7 +2762,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('677c865b89aa97e7dbeb4bfbb50bbcfd','529d3f46584a8fa9027777a9c7d5a1fc','1','14/08/2018','14/08/2018','23/08/2018','24/08/2018','31/08/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('677c865b89aa97e7dbeb4bfbb50bbcfd','529d3f46584a8fa9027777a9c7d5a1fc','1','08/14/2018','08/14/2018','08/23/2018','08/24/2018','08/31/2018');</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2777,7 +2792,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('68e55ca79d04a79f20d4bfc0146f4b66','30e6e854c81fa16f46a5d7f3ab025e6f','1','16/03/2018','16/03/2018','20/03/2018','11/04/2018','06/04/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('68e55ca79d04a79f20d4bfc0146f4b66','30e6e854c81fa16f46a5d7f3ab025e6f','1','03/16/2018','03/16/2018','03/20/2018','04/11/2018','04/06/2018');</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2807,7 +2822,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('70a752414a13d09cc1f2b437b914b28e','db3234528c502acda9991fd53d7223d6','1','19/09/2017','19/09/2017','20/09/2017','28/09/2017','10/10/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('70a752414a13d09cc1f2b437b914b28e','db3234528c502acda9991fd53d7223d6','1','09/19/2017','09/19/2017','09/20/2017','09/28/2017','10/10/2017');</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2837,7 +2852,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7139cfc52657eafe990b5b23ed163482','05929b58add0a2e46bb430439b7130a9','1','04/02/2018','04/02/2018','06/02/2018','11/02/2018','01/03/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7139cfc52657eafe990b5b23ed163482','05929b58add0a2e46bb430439b7130a9','1','02/04/2018','02/04/2018','02/06/2018','02/11/2018','03/01/2018');</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2867,7 +2882,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('79832b7cb59ac6f887088ffd686e1d5e','ce3e77ff426cf554944d321064dd87f2','1','21/11/2017','21/11/2017','21/11/2017','01/12/2017','15/12/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('79832b7cb59ac6f887088ffd686e1d5e','ce3e77ff426cf554944d321064dd87f2','1','11/21/2017','11/21/2017','11/21/2017','12/01/2017','12/15/2017');</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2897,7 +2912,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7c9956750739a47dba7a6928ba2f0245','b65dda35fa1e480e28ded92bd5efe474','1','28/08/2017','29/08/2017','29/08/2017','08/09/2017','14/09/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('7c9956750739a47dba7a6928ba2f0245','b65dda35fa1e480e28ded92bd5efe474','1','08/28/2017','08/29/2017','08/29/2017','09/08/2017','09/14/2017');</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2927,7 +2942,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('84cec4f65c7a4f2f54c294a30224a594','61a1d82e44d450a06016bb941595446d','1','14/06/2017','15/06/2017','16/06/2017','22/06/2017','07/07/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('84cec4f65c7a4f2f54c294a30224a594','61a1d82e44d450a06016bb941595446d','1','06/14/2017','06/15/2017','06/16/2017','06/22/2017','07/07/2017');</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2957,7 +2972,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('88096595631e8d26b658306256e3ce34','29a48e3e901b5187dae9af8a5563c795','1','05/01/2018','05/01/2018','08/01/2018','19/02/2018','06/02/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('88096595631e8d26b658306256e3ce34','29a48e3e901b5187dae9af8a5563c795','1','01/05/2018','01/05/2018','01/08/2018','02/19/2018','02/06/2018');</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2987,7 +3002,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('8ba3f3a9292fbc22a8b7dff752bbcd37','0315a87fba4dab4865f2071777b98e87','1','07/07/2017','07/07/2017','08/07/2017','18/07/2017','31/07/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('8ba3f3a9292fbc22a8b7dff752bbcd37','0315a87fba4dab4865f2071777b98e87','1','07/07/2017','07/07/2017','07/08/2017','07/18/2017','07/31/2017');</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3017,7 +3032,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('9bcc43446a687456408f7c92cf486f48','1b4fbf469a7ab0237b99420da733202e','1','09/01/2018','10/01/2018','10/01/2018','24/01/2018','02/02/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('9bcc43446a687456408f7c92cf486f48','1b4fbf469a7ab0237b99420da733202e','1','01/09/2018','01/10/2018','01/10/2018','01/24/2018','02/02/2018');</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3047,7 +3062,7 @@
       </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('a9953b2f0b1665ac7586cc5a6ac8f58c','1f5856eeda57cbd78ba0dcdddd0439e4','1','13/09/2017','13/09/2017','19/09/2017','05/10/2017','11/10/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('a9953b2f0b1665ac7586cc5a6ac8f58c','1f5856eeda57cbd78ba0dcdddd0439e4','1','09/13/2017','09/13/2017','09/19/2017','10/05/2017','10/11/2017');</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3077,7 +3092,7 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('aad1dcbe4c9fe2e3486e5e04c6649097','2438ba50f3a77cbfd3377900835fb526','1','24/04/2018','24/04/2018','25/04/2018','12/05/2018','21/05/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('aad1dcbe4c9fe2e3486e5e04c6649097','2438ba50f3a77cbfd3377900835fb526','1','04/24/2018','04/24/2018','04/25/2018','05/12/2018','05/21/2018');</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3107,7 +3122,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae08a26b052c48419e21581f9f01d47e','d80952ace947b1e43b7a5d279da00cd3','1','12/01/2018','12/01/2018','15/01/2018','20/02/2018','08/02/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae08a26b052c48419e21581f9f01d47e','d80952ace947b1e43b7a5d279da00cd3','1','01/12/2018','01/12/2018','01/15/2018','02/20/2018','02/08/2018');</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3137,7 +3152,7 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae168dfba236919411fe08f336fefa44','63572a1269de35c881dc1ca268e20fa0','1','27/02/2018','27/02/2018','07/03/2018','16/03/2018','22/03/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ae168dfba236919411fe08f336fefa44','63572a1269de35c881dc1ca268e20fa0','1','02/27/2018','02/27/2018','03/07/2018','03/16/2018','03/22/2018');</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3167,7 +3182,7 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('af32671d0b8ce510a94d9111d97371d3','ccafbef5836bb3f6604cd55c75d54b4b','1','13/03/2018','15/03/2018','16/03/2018','21/03/2018','02/04/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('af32671d0b8ce510a94d9111d97371d3','ccafbef5836bb3f6604cd55c75d54b4b','1','03/13/2018','03/15/2018','03/16/2018','03/21/2018','04/02/2018');</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3197,7 +3212,7 @@
       </c>
       <c r="L34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('b89b5e15757b5d96e7d67c969324aeca','cd6b3de9793104fb781a4908b6f8a0e6','1','14/08/2018','14/08/2018','14/08/2018','15/08/2018','21/08/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('b89b5e15757b5d96e7d67c969324aeca','cd6b3de9793104fb781a4908b6f8a0e6','1','08/14/2018','08/14/2018','08/14/2018','08/15/2018','08/21/2018');</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3227,7 +3242,7 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('be672f99f61bb90b0430f407ba4378cb','8342323ca97ec421480430c2a893aca2','1','21/08/2018','21/08/2018','21/08/2018','22/08/2018','24/08/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('be672f99f61bb90b0430f407ba4378cb','8342323ca97ec421480430c2a893aca2','1','08/21/2018','08/21/2018','08/21/2018','08/22/2018','08/24/2018');</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3257,7 +3272,7 @@
       </c>
       <c r="L36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('cf73e2cb1f4a9480ed70c154da3d954a','ef1ed1347404166e73e8f3977ffcbca0','1','11/01/2018','12/01/2018','13/01/2018','17/01/2018','01/02/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('cf73e2cb1f4a9480ed70c154da3d954a','ef1ed1347404166e73e8f3977ffcbca0','1','01/11/2018','01/12/2018','01/13/2018','01/17/2018','02/01/2018');</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3287,7 +3302,7 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d17ebef6117650c283479ff4dca49c6f','05e86ce92eb1b627c2296627078d237c','1','20/07/2017','20/07/2017','24/07/2017','31/07/2017','21/08/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d17ebef6117650c283479ff4dca49c6f','05e86ce92eb1b627c2296627078d237c','1','07/20/2017','07/20/2017','07/24/2017','07/31/2017','08/21/2017');</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3317,7 +3332,7 @@
       </c>
       <c r="L38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d28f2bc60aaf4da8d97ff1319fdffab4','91c6fb2b7b643426eb8f72f1a3e422d1','1','15/03/2018','15/03/2018','16/03/2018','20/03/2018','28/03/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d28f2bc60aaf4da8d97ff1319fdffab4','91c6fb2b7b643426eb8f72f1a3e422d1','1','03/15/2018','03/15/2018','03/16/2018','03/20/2018','03/28/2018');</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3347,7 +3362,7 @@
       </c>
       <c r="L39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d39cd8aec30c3829bad1c1b4194b4fd8','87c10876090200b63f130ffb699b2e82','1','25/08/2017','25/08/2017','28/08/2017','05/09/2017','21/09/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d39cd8aec30c3829bad1c1b4194b4fd8','87c10876090200b63f130ffb699b2e82','1','08/25/2017','08/25/2017','08/28/2017','09/05/2017','09/21/2017');</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3377,7 +3392,7 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d7bd0e4afdf94846eb73642b4e3e75c3','12a063cae60cd7bc2f0029514b21d24c','1','23/04/2017','23/04/2017','24/04/2017','29/04/2017','11/05/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('d7bd0e4afdf94846eb73642b4e3e75c3','12a063cae60cd7bc2f0029514b21d24c','1','04/23/2017','04/23/2017','04/24/2017','04/29/2017','05/11/2017');</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3407,7 +3422,7 @@
       </c>
       <c r="L41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e029f708df3cc108b3264558771605c6','d2aa6bef2582c7482ab992fa89f965bd','1','01/06/2018','01/06/2018','05/06/2018','12/06/2018','29/06/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e029f708df3cc108b3264558771605c6','d2aa6bef2582c7482ab992fa89f965bd','1','06/01/2018','06/01/2018','06/05/2018','06/12/2018','06/29/2018');</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3437,7 +3452,7 @@
       </c>
       <c r="L42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e1a86e22da680449cba8e136ffa97f8a','fddbbeff104817044cfe82a0c122f473','1','30/11/2017','01/12/2017','05/12/2017','11/12/2017','28/12/2017')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e1a86e22da680449cba8e136ffa97f8a','fddbbeff104817044cfe82a0c122f473','1','11/30/2017','12/01/2017','12/05/2017','12/11/2017','12/28/2017');</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3467,7 +3482,7 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e2e6ee1ed2d7f2f36b05d234983bd7a0','20a92c393edb6c08801eef97295257f7','1','28/07/2018','30/07/2018','01/08/2018','09/08/2018','17/08/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e2e6ee1ed2d7f2f36b05d234983bd7a0','20a92c393edb6c08801eef97295257f7','1','07/28/2018','07/30/2018','08/01/2018','08/09/2018','08/17/2018');</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3497,7 +3512,7 @@
       </c>
       <c r="L44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e51478e7e277a83743b6f9991dbfa3fb','659ded3e9b43aaf51cf9586d03033b46','1','18/05/2018','18/05/2018','19/05/2018','22/05/2018','07/06/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('e51478e7e277a83743b6f9991dbfa3fb','659ded3e9b43aaf51cf9586d03033b46','1','05/18/2018','05/18/2018','05/19/2018','05/22/2018','06/07/2018');</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -3527,7 +3542,7 @@
       </c>
       <c r="L45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('eae81d7a6951b80a04eb152e76e3ba55','15652e306d7c3e9098df857da0db3201','1','19/07/2018','19/07/2018','23/07/2018','26/07/2018','17/08/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('eae81d7a6951b80a04eb152e76e3ba55','15652e306d7c3e9098df857da0db3201','1','07/19/2018','07/19/2018','07/23/2018','07/26/2018','08/17/2018');</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3557,7 +3572,7 @@
       </c>
       <c r="L46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('fa612a1874826daa30fed5e3073b9d0d','b51db50e74624ee11ec905f6c8cb92c2','1','23/02/2018','23/02/2018','27/02/2018','01/03/2018','15/03/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('fa612a1874826daa30fed5e3073b9d0d','b51db50e74624ee11ec905f6c8cb92c2','1','02/23/2018','02/23/2018','02/27/2018','03/01/2018','03/15/2018');</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3587,7 +3602,7 @@
       </c>
       <c r="L47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO orden (order_id,customer_id,order_status,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ff1581e08b3011021e7c7de592ddc81e','0f3c16514be9fe9bdb840983701d2ce6','1','21/03/2018','21/03/2018','22/03/2018','24/03/2018','03/04/2018')</v>
+        <v>INSERT INTO orden (order_id,customer_id,STATUS_ID,order_purchase_timestamp,order_approved_at,order_delivered_carrier_date,order_delivered_customer_date,order_estimated_delivery_date) VALUES ('ff1581e08b3011021e7c7de592ddc81e','0f3c16514be9fe9bdb840983701d2ce6','1','03/21/2018','03/21/2018','03/22/2018','03/24/2018','04/03/2018');</v>
       </c>
     </row>
   </sheetData>
@@ -3597,84 +3612,126 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E503FD2-36EC-4835-BD0E-0508210B95DA}">
-  <dimension ref="B1:C9"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="str">
+        <f>+CONCATENATE("INSERT INTO ",$F$2," (",$C$1,") VALUES ('",C2,"');")</f>
+        <v>INSERT INTO estado_orden (STATUS_DESCRIPTION) VALUES ('delivered');</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G9" si="0">+CONCATENATE("INSERT INTO ",$F$2," (",$C$1,") VALUES ('",C3,"');")</f>
+        <v>INSERT INTO estado_orden (STATUS_DESCRIPTION) VALUES ('invoiced');</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado_orden (STATUS_DESCRIPTION) VALUES ('shipped');</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado_orden (STATUS_DESCRIPTION) VALUES ('processing');</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado_orden (STATUS_DESCRIPTION) VALUES ('unavailable');</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado_orden (STATUS_DESCRIPTION) VALUES ('canceled');</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado_orden (STATUS_DESCRIPTION) VALUES ('created');</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
       </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado_orden (STATUS_DESCRIPTION) VALUES ('approved');</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>